--- a/Saved_file/EM003/2026_07/work_logs_EM003_2026_07.xlsx
+++ b/Saved_file/EM003/2026_07/work_logs_EM003_2026_07.xlsx
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-07-08 08:51:55</t>
+          <t>2026-07-16 16:37:50</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FACE_MATCH</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.462</t>
+          <t>Mouse anomaly detected - Score: 0.827</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SESS_20260708_000</t>
+          <t>SESS_20260716_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -511,34 +511,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08:51:55</t>
+          <t>16:37:50</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-07-17 11:09:27</t>
+          <t>2026-07-15 15:27:55</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.477</t>
+          <t>Face verification failed - Similarity: 0.333</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SESS_20260717_001</t>
+          <t>SESS_20260715_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11:09:27</t>
+          <t>15:27:55</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -578,17 +578,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-07-06 16:12:52</t>
+          <t>2026-07-22 20:06:48</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.416</t>
+          <t>Mouse anomaly detected - Score: 0.881</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SESS_20260706_002</t>
+          <t>SESS_20260722_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -611,34 +611,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-07-06</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16:12:52</t>
+          <t>20:06:48</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-07-02 08:14:17</t>
+          <t>2026-07-09 08:23:33</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.443</t>
+          <t>Face verification failed - Similarity: 0.452</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SESS_20260702_003</t>
+          <t>SESS_20260709_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08:14:17</t>
+          <t>08:23:33</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-07-27 15:14:56</t>
+          <t>2026-07-21 08:41:10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.775</t>
+          <t>Mouse anomaly detected - Score: 0.822</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SESS_20260727_004</t>
+          <t>SESS_20260721_004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-07-21</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15:14:56</t>
+          <t>08:41:10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -728,7 +728,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-07-23 10:05:07</t>
+          <t>2026-07-27 13:50:07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SESS_20260723_005</t>
+          <t>SESS_20260727_005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -761,12 +761,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-07-23</t>
+          <t>2026-07-27</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10:05:07</t>
+          <t>13:50:07</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -778,17 +778,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-07-09 10:24:34</t>
+          <t>2026-07-18 13:17:04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.371</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SESS_20260709_006</t>
+          <t>SESS_20260718_006</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -811,34 +811,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10:24:34</t>
+          <t>13:17:04</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-07-17 16:31:37</t>
+          <t>2026-07-02 18:49:48</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.764</t>
+          <t>Face verification failed - Similarity: 0.491</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SESS_20260717_007</t>
+          <t>SESS_20260702_007</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -861,34 +861,34 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>16:31:37</t>
+          <t>18:49:48</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-07-24 14:18:05</t>
+          <t>2026-07-09 12:17:07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.292</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SESS_20260724_008</t>
+          <t>SESS_20260709_008</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -911,29 +911,29 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-07-24</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>14:18:05</t>
+          <t>12:17:07</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-07-27 10:43:01</t>
+          <t>2026-07-28 17:49:52</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SESS_20260727_009</t>
+          <t>SESS_20260728_009</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -961,12 +961,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-07-28</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10:43:01</t>
+          <t>17:49:52</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -978,17 +978,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-07-24 11:15:07</t>
+          <t>2026-07-07 13:01:25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.389</t>
+          <t>Mouse anomaly detected - Score: 0.948</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SESS_20260724_010</t>
+          <t>SESS_20260707_010</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1011,34 +1011,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-07-24</t>
+          <t>2026-07-07</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11:15:07</t>
+          <t>13:01:25</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-07-01 20:28:05</t>
+          <t>2026-07-05 18:12:08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.825</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SESS_20260701_011</t>
+          <t>SESS_20260705_011</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1061,17 +1061,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2026-07-05</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>20:28:05</t>
+          <t>18:12:08</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z55"/>
+  <dimension ref="A1:Z73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1229,7 +1229,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-07-01 16:02:41</t>
+          <t>2026-07-01 09:39:32</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.311</t>
+          <t>Mouse session - Score: 0.408</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>16:02:41</t>
+          <t>09:39:32</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1276,58 +1276,58 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>14559</v>
+        <v>8511</v>
       </c>
       <c r="L2" t="n">
-        <v>14559</v>
+        <v>8511</v>
       </c>
       <c r="M2" t="n">
-        <v>38357.32</v>
+        <v>16876.34</v>
       </c>
       <c r="N2" t="n">
-        <v>23014.39</v>
+        <v>10125.8</v>
       </c>
       <c r="O2" t="n">
-        <v>15342.93</v>
+        <v>6750.53</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="R2" t="n">
-        <v>46.51</v>
+        <v>38.9</v>
       </c>
       <c r="S2" t="n">
-        <v>824.66</v>
+        <v>433.87</v>
       </c>
       <c r="T2" t="n">
-        <v>42.26</v>
+        <v>44.11</v>
       </c>
       <c r="U2" t="n">
-        <v>494.79</v>
+        <v>260.32</v>
       </c>
       <c r="V2" t="n">
-        <v>329.86</v>
+        <v>173.55</v>
       </c>
       <c r="W2" t="n">
-        <v>28.27</v>
+        <v>27.48</v>
       </c>
       <c r="X2" t="n">
-        <v>25.26</v>
+        <v>5.54</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.51</v>
+        <v>38.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.311</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-07-01 15:16:05</t>
+          <t>2026-07-01 09:51:52</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.434</t>
+          <t>Mouse session - Score: 0.319</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15:16:05</t>
+          <t>09:51:52</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1374,58 +1374,58 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>27452</v>
+        <v>21043</v>
       </c>
       <c r="L3" t="n">
-        <v>27452</v>
+        <v>21043</v>
       </c>
       <c r="M3" t="n">
-        <v>31843.73</v>
+        <v>10006.62</v>
       </c>
       <c r="N3" t="n">
-        <v>19106.24</v>
+        <v>6003.97</v>
       </c>
       <c r="O3" t="n">
-        <v>12737.49</v>
+        <v>4002.65</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>38.47</v>
+        <v>141.9</v>
       </c>
       <c r="S3" t="n">
-        <v>827.8</v>
+        <v>70.52</v>
       </c>
       <c r="T3" t="n">
-        <v>24.11</v>
+        <v>46.77</v>
       </c>
       <c r="U3" t="n">
-        <v>496.68</v>
+        <v>42.31</v>
       </c>
       <c r="V3" t="n">
-        <v>331.12</v>
+        <v>28.21</v>
       </c>
       <c r="W3" t="n">
-        <v>12.84</v>
+        <v>21.63</v>
       </c>
       <c r="X3" t="n">
-        <v>4.54</v>
+        <v>23.54</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.47</v>
+        <v>141.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.434</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-07-01 15:55:08</t>
+          <t>2026-07-01 12:32:27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.407</t>
+          <t>Mouse session - Score: 0.347</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15:55:08</t>
+          <t>12:32:27</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1472,58 +1472,58 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>20956</v>
+        <v>10386</v>
       </c>
       <c r="L4" t="n">
-        <v>20956</v>
+        <v>10386</v>
       </c>
       <c r="M4" t="n">
-        <v>16001.43</v>
+        <v>19139.79</v>
       </c>
       <c r="N4" t="n">
-        <v>9600.860000000001</v>
+        <v>11483.87</v>
       </c>
       <c r="O4" t="n">
-        <v>6400.57</v>
+        <v>7655.92</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R4" t="n">
-        <v>143.37</v>
+        <v>94.56999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>111.61</v>
+        <v>202.39</v>
       </c>
       <c r="T4" t="n">
-        <v>19.74</v>
+        <v>47.4</v>
       </c>
       <c r="U4" t="n">
-        <v>66.95999999999999</v>
+        <v>121.43</v>
       </c>
       <c r="V4" t="n">
-        <v>44.64</v>
+        <v>80.95</v>
       </c>
       <c r="W4" t="n">
-        <v>2.66</v>
+        <v>15.05</v>
       </c>
       <c r="X4" t="n">
-        <v>5.54</v>
+        <v>28.88</v>
       </c>
       <c r="Y4" t="n">
-        <v>143.37</v>
+        <v>94.56999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.407</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-07-02 13:00:31</t>
+          <t>2026-07-01 09:12:21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.424</t>
+          <t>Mouse session - Score: 0.409</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MOUSE_20260702_000</t>
+          <t>MOUSE_20260701_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13:00:31</t>
+          <t>09:12:21</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1570,58 +1570,58 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>19960</v>
+        <v>10865</v>
       </c>
       <c r="L5" t="n">
-        <v>19960</v>
+        <v>10865</v>
       </c>
       <c r="M5" t="n">
-        <v>33232.97</v>
+        <v>21596.06</v>
       </c>
       <c r="N5" t="n">
-        <v>19939.78</v>
+        <v>12957.64</v>
       </c>
       <c r="O5" t="n">
-        <v>13293.19</v>
+        <v>8638.42</v>
       </c>
       <c r="P5" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R5" t="n">
-        <v>49.15</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>676.22</v>
+        <v>271.41</v>
       </c>
       <c r="T5" t="n">
-        <v>5.47</v>
+        <v>28.2</v>
       </c>
       <c r="U5" t="n">
-        <v>405.73</v>
+        <v>162.85</v>
       </c>
       <c r="V5" t="n">
-        <v>270.49</v>
+        <v>108.57</v>
       </c>
       <c r="W5" t="n">
-        <v>24.22</v>
+        <v>22.12</v>
       </c>
       <c r="X5" t="n">
-        <v>7.74</v>
+        <v>10.52</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.15</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.424</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-07-02 16:41:25</t>
+          <t>2026-07-02 15:56:49</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.280</t>
+          <t>Mouse session - Score: 0.334</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MOUSE_20260702_001</t>
+          <t>MOUSE_20260702_000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>16:41:25</t>
+          <t>15:56:49</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1668,58 +1668,58 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>7870</v>
+        <v>22419</v>
       </c>
       <c r="L6" t="n">
-        <v>7870</v>
+        <v>22419</v>
       </c>
       <c r="M6" t="n">
-        <v>7226.9</v>
+        <v>16626.41</v>
       </c>
       <c r="N6" t="n">
-        <v>4336.14</v>
+        <v>9975.85</v>
       </c>
       <c r="O6" t="n">
-        <v>2890.76</v>
+        <v>6650.56</v>
       </c>
       <c r="P6" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="Q6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" t="n">
-        <v>177.74</v>
+        <v>33.41</v>
       </c>
       <c r="S6" t="n">
-        <v>40.66</v>
+        <v>497.63</v>
       </c>
       <c r="T6" t="n">
-        <v>31.39</v>
+        <v>43.57</v>
       </c>
       <c r="U6" t="n">
-        <v>24.4</v>
+        <v>298.58</v>
       </c>
       <c r="V6" t="n">
-        <v>16.26</v>
+        <v>199.05</v>
       </c>
       <c r="W6" t="n">
-        <v>17</v>
+        <v>4.8</v>
       </c>
       <c r="X6" t="n">
-        <v>14.51</v>
+        <v>7.68</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.74</v>
+        <v>33.41</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.28</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-07-02 15:54:48</t>
+          <t>2026-07-02 16:08:04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.280</t>
+          <t>Mouse session - Score: 0.941</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1739,16 +1739,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MOUSE_20260702_002</t>
+          <t>MOUSE_20260702_001</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15:54:48</t>
+          <t>16:08:04</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1766,58 +1766,58 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>20028</v>
+        <v>24191</v>
       </c>
       <c r="L7" t="n">
-        <v>20028</v>
+        <v>24191</v>
       </c>
       <c r="M7" t="n">
-        <v>38267.22</v>
+        <v>26376.2</v>
       </c>
       <c r="N7" t="n">
-        <v>22960.33</v>
+        <v>15825.72</v>
       </c>
       <c r="O7" t="n">
-        <v>15306.89</v>
+        <v>10550.48</v>
       </c>
       <c r="P7" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R7" t="n">
-        <v>97.87</v>
+        <v>54.35</v>
       </c>
       <c r="S7" t="n">
-        <v>391.02</v>
+        <v>485.26</v>
       </c>
       <c r="T7" t="n">
-        <v>26.44</v>
+        <v>21.22</v>
       </c>
       <c r="U7" t="n">
-        <v>234.61</v>
+        <v>291.16</v>
       </c>
       <c r="V7" t="n">
-        <v>156.41</v>
+        <v>194.11</v>
       </c>
       <c r="W7" t="n">
-        <v>4.91</v>
+        <v>6.47</v>
       </c>
       <c r="X7" t="n">
-        <v>8.58</v>
+        <v>19.18</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.87</v>
+        <v>54.35</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.28</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-07-03 12:11:38</t>
+          <t>2026-07-02 13:48:20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.442</t>
+          <t>Mouse session - Score: 0.353</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MOUSE_20260703_000</t>
+          <t>MOUSE_20260702_002</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1850,12 +1850,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-07-03</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12:11:38</t>
+          <t>13:48:20</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1864,58 +1864,58 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>23950</v>
+        <v>11099</v>
       </c>
       <c r="L8" t="n">
-        <v>23950</v>
+        <v>11099</v>
       </c>
       <c r="M8" t="n">
-        <v>24186.89</v>
+        <v>23669.85</v>
       </c>
       <c r="N8" t="n">
-        <v>14512.13</v>
+        <v>14201.91</v>
       </c>
       <c r="O8" t="n">
-        <v>9674.76</v>
+        <v>9467.940000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>158.2</v>
+        <v>57.55</v>
       </c>
       <c r="S8" t="n">
-        <v>152.89</v>
+        <v>411.32</v>
       </c>
       <c r="T8" t="n">
-        <v>6.73</v>
+        <v>18.66</v>
       </c>
       <c r="U8" t="n">
-        <v>91.73999999999999</v>
+        <v>246.79</v>
       </c>
       <c r="V8" t="n">
-        <v>61.16</v>
+        <v>164.53</v>
       </c>
       <c r="W8" t="n">
-        <v>29.45</v>
+        <v>6.41</v>
       </c>
       <c r="X8" t="n">
-        <v>2.66</v>
+        <v>19.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.2</v>
+        <v>57.55</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.442</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-07-03 10:51:01</t>
+          <t>2026-07-02 17:06:05</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.276</t>
+          <t>Mouse session - Score: 0.262</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MOUSE_20260703_001</t>
+          <t>MOUSE_20260702_003</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-07-03</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10:51:01</t>
+          <t>17:06:05</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1962,58 +1962,58 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>12541</v>
+        <v>6566</v>
       </c>
       <c r="L9" t="n">
-        <v>12541</v>
+        <v>6566</v>
       </c>
       <c r="M9" t="n">
-        <v>32144.91</v>
+        <v>17812.24</v>
       </c>
       <c r="N9" t="n">
-        <v>19286.94</v>
+        <v>10687.34</v>
       </c>
       <c r="O9" t="n">
-        <v>12857.96</v>
+        <v>7124.9</v>
       </c>
       <c r="P9" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="Q9" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="R9" t="n">
-        <v>36.85</v>
+        <v>63.12</v>
       </c>
       <c r="S9" t="n">
-        <v>872.38</v>
+        <v>282.19</v>
       </c>
       <c r="T9" t="n">
-        <v>5.64</v>
+        <v>49.55</v>
       </c>
       <c r="U9" t="n">
-        <v>523.4299999999999</v>
+        <v>169.31</v>
       </c>
       <c r="V9" t="n">
-        <v>348.95</v>
+        <v>112.88</v>
       </c>
       <c r="W9" t="n">
-        <v>8.68</v>
+        <v>15.04</v>
       </c>
       <c r="X9" t="n">
-        <v>18.96</v>
+        <v>22.17</v>
       </c>
       <c r="Y9" t="n">
-        <v>36.85</v>
+        <v>63.12</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.276</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-07-03 14:01:39</t>
+          <t>2026-07-03 14:18:44</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.287</t>
+          <t>Mouse session - Score: 0.386</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MOUSE_20260703_002</t>
+          <t>MOUSE_20260703_000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>14:01:39</t>
+          <t>14:18:44</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2060,58 +2060,58 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>8783</v>
+        <v>8713</v>
       </c>
       <c r="L10" t="n">
-        <v>8783</v>
+        <v>8713</v>
       </c>
       <c r="M10" t="n">
-        <v>22300.85</v>
+        <v>36579.26</v>
       </c>
       <c r="N10" t="n">
-        <v>13380.51</v>
+        <v>21947.56</v>
       </c>
       <c r="O10" t="n">
-        <v>8920.34</v>
+        <v>14631.7</v>
       </c>
       <c r="P10" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="Q10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R10" t="n">
-        <v>167.41</v>
+        <v>141.85</v>
       </c>
       <c r="S10" t="n">
-        <v>133.21</v>
+        <v>257.87</v>
       </c>
       <c r="T10" t="n">
-        <v>44.31</v>
+        <v>28.42</v>
       </c>
       <c r="U10" t="n">
-        <v>79.93000000000001</v>
+        <v>154.72</v>
       </c>
       <c r="V10" t="n">
-        <v>53.28</v>
+        <v>103.15</v>
       </c>
       <c r="W10" t="n">
-        <v>24.26</v>
+        <v>27.16</v>
       </c>
       <c r="X10" t="n">
-        <v>26.61</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>167.41</v>
+        <v>141.85</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.287</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-07-05 17:19:57</t>
+          <t>2026-07-03 11:06:20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.437</t>
+          <t>Mouse session - Score: 0.403</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MOUSE_20260705_000</t>
+          <t>MOUSE_20260703_001</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>17:19:57</t>
+          <t>11:06:20</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2158,58 +2158,58 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>7120</v>
+        <v>20653</v>
       </c>
       <c r="L11" t="n">
-        <v>7120</v>
+        <v>20653</v>
       </c>
       <c r="M11" t="n">
-        <v>11906.97</v>
+        <v>21104.95</v>
       </c>
       <c r="N11" t="n">
-        <v>7144.18</v>
+        <v>12662.97</v>
       </c>
       <c r="O11" t="n">
-        <v>4762.79</v>
+        <v>8441.98</v>
       </c>
       <c r="P11" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R11" t="n">
-        <v>160.14</v>
+        <v>137.7</v>
       </c>
       <c r="S11" t="n">
-        <v>74.34999999999999</v>
+        <v>153.26</v>
       </c>
       <c r="T11" t="n">
-        <v>29.1</v>
+        <v>9.18</v>
       </c>
       <c r="U11" t="n">
-        <v>44.61</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="V11" t="n">
-        <v>29.74</v>
+        <v>61.31</v>
       </c>
       <c r="W11" t="n">
-        <v>28.41</v>
+        <v>5.91</v>
       </c>
       <c r="X11" t="n">
-        <v>26.31</v>
+        <v>5.16</v>
       </c>
       <c r="Y11" t="n">
-        <v>160.14</v>
+        <v>137.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.437</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-07-05 16:46:42</t>
+          <t>2026-07-03 17:49:46</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.429</t>
+          <t>Mouse session - Score: 0.428</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MOUSE_20260705_001</t>
+          <t>MOUSE_20260703_002</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2242,12 +2242,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16:46:42</t>
+          <t>17:49:46</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2256,58 +2256,58 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>26448</v>
+        <v>17408</v>
       </c>
       <c r="L12" t="n">
-        <v>26448</v>
+        <v>17408</v>
       </c>
       <c r="M12" t="n">
-        <v>27365.66</v>
+        <v>30921.18</v>
       </c>
       <c r="N12" t="n">
-        <v>16419.4</v>
+        <v>18552.71</v>
       </c>
       <c r="O12" t="n">
-        <v>10946.27</v>
+        <v>12368.47</v>
       </c>
       <c r="P12" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R12" t="n">
-        <v>116.44</v>
+        <v>145.18</v>
       </c>
       <c r="S12" t="n">
-        <v>235.01</v>
+        <v>212.99</v>
       </c>
       <c r="T12" t="n">
-        <v>37.64</v>
+        <v>14.69</v>
       </c>
       <c r="U12" t="n">
-        <v>141.01</v>
+        <v>127.79</v>
       </c>
       <c r="V12" t="n">
-        <v>94.01000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="W12" t="n">
-        <v>22.16</v>
+        <v>10.28</v>
       </c>
       <c r="X12" t="n">
-        <v>13.84</v>
+        <v>25.34</v>
       </c>
       <c r="Y12" t="n">
-        <v>116.44</v>
+        <v>145.18</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-07-05 13:25:56</t>
+          <t>2026-07-03 14:26:23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.834</t>
+          <t>Mouse session - Score: 0.907</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MOUSE_20260705_002</t>
+          <t>MOUSE_20260703_003</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2340,12 +2340,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>13:25:56</t>
+          <t>14:26:23</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2354,58 +2354,58 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>15503</v>
+        <v>17538</v>
       </c>
       <c r="L13" t="n">
-        <v>15503</v>
+        <v>17538</v>
       </c>
       <c r="M13" t="n">
-        <v>13696.85</v>
+        <v>33434.82</v>
       </c>
       <c r="N13" t="n">
-        <v>8218.110000000001</v>
+        <v>20060.89</v>
       </c>
       <c r="O13" t="n">
-        <v>5478.74</v>
+        <v>13373.93</v>
       </c>
       <c r="P13" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R13" t="n">
-        <v>151.01</v>
+        <v>140.21</v>
       </c>
       <c r="S13" t="n">
-        <v>90.7</v>
+        <v>238.47</v>
       </c>
       <c r="T13" t="n">
-        <v>7.64</v>
+        <v>13.32</v>
       </c>
       <c r="U13" t="n">
-        <v>54.42</v>
+        <v>143.08</v>
       </c>
       <c r="V13" t="n">
-        <v>36.28</v>
+        <v>95.39</v>
       </c>
       <c r="W13" t="n">
-        <v>29.21</v>
+        <v>3.32</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>23.06</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.01</v>
+        <v>140.21</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.834</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-07-06 10:40:48</t>
+          <t>2026-07-06 15:09:31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.925</t>
+          <t>Mouse session - Score: 0.412</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2430,11 +2430,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10:40:48</t>
+          <t>15:09:31</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2452,58 +2452,58 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>10158</v>
+        <v>14420</v>
       </c>
       <c r="L14" t="n">
-        <v>10158</v>
+        <v>14420</v>
       </c>
       <c r="M14" t="n">
-        <v>17325.96</v>
+        <v>33388.74</v>
       </c>
       <c r="N14" t="n">
-        <v>10395.58</v>
+        <v>20033.25</v>
       </c>
       <c r="O14" t="n">
-        <v>6930.38</v>
+        <v>13355.5</v>
       </c>
       <c r="P14" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="R14" t="n">
-        <v>133.64</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>129.65</v>
+        <v>486.9</v>
       </c>
       <c r="T14" t="n">
-        <v>7.3</v>
+        <v>12.23</v>
       </c>
       <c r="U14" t="n">
-        <v>77.79000000000001</v>
+        <v>292.14</v>
       </c>
       <c r="V14" t="n">
-        <v>51.86</v>
+        <v>194.76</v>
       </c>
       <c r="W14" t="n">
-        <v>5.31</v>
+        <v>14.68</v>
       </c>
       <c r="X14" t="n">
-        <v>4.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Y14" t="n">
-        <v>133.64</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.925</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-07-06 11:58:12</t>
+          <t>2026-07-06 11:09:59</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.270</t>
+          <t>Mouse session - Score: 0.393</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11:58:12</t>
+          <t>11:09:59</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2550,58 +2550,58 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>16800</v>
+        <v>27120</v>
       </c>
       <c r="L15" t="n">
-        <v>16800</v>
+        <v>27120</v>
       </c>
       <c r="M15" t="n">
-        <v>24472.41</v>
+        <v>8467.110000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>14683.44</v>
+        <v>5080.27</v>
       </c>
       <c r="O15" t="n">
-        <v>9788.959999999999</v>
+        <v>3386.84</v>
       </c>
       <c r="P15" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="Q15" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R15" t="n">
-        <v>47.32</v>
+        <v>50.45</v>
       </c>
       <c r="S15" t="n">
-        <v>517.13</v>
+        <v>167.82</v>
       </c>
       <c r="T15" t="n">
-        <v>21.6</v>
+        <v>43.4</v>
       </c>
       <c r="U15" t="n">
-        <v>310.28</v>
+        <v>100.69</v>
       </c>
       <c r="V15" t="n">
-        <v>206.85</v>
+        <v>67.13</v>
       </c>
       <c r="W15" t="n">
-        <v>13.38</v>
+        <v>10.92</v>
       </c>
       <c r="X15" t="n">
-        <v>20.11</v>
+        <v>12.14</v>
       </c>
       <c r="Y15" t="n">
-        <v>47.32</v>
+        <v>50.45</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.27</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-07-06 10:04:35</t>
+          <t>2026-07-06 09:21:22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.404</t>
+          <t>Mouse session - Score: 0.337</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10:04:35</t>
+          <t>09:21:22</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2648,58 +2648,58 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>7027</v>
+        <v>8637</v>
       </c>
       <c r="L16" t="n">
-        <v>7027</v>
+        <v>8637</v>
       </c>
       <c r="M16" t="n">
-        <v>5200.67</v>
+        <v>6544.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3120.4</v>
+        <v>3926.43</v>
       </c>
       <c r="O16" t="n">
-        <v>2080.27</v>
+        <v>2617.62</v>
       </c>
       <c r="P16" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="Q16" t="n">
         <v>17</v>
       </c>
       <c r="R16" t="n">
-        <v>32.52</v>
+        <v>177.33</v>
       </c>
       <c r="S16" t="n">
-        <v>159.91</v>
+        <v>36.9</v>
       </c>
       <c r="T16" t="n">
-        <v>38.75</v>
+        <v>35.22</v>
       </c>
       <c r="U16" t="n">
-        <v>95.95</v>
+        <v>22.14</v>
       </c>
       <c r="V16" t="n">
-        <v>63.96</v>
+        <v>14.76</v>
       </c>
       <c r="W16" t="n">
-        <v>26.91</v>
+        <v>20.39</v>
       </c>
       <c r="X16" t="n">
-        <v>10.58</v>
+        <v>26.66</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.52</v>
+        <v>177.33</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.404</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-07-07 10:47:05</t>
+          <t>2026-07-06 09:11:33</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.266</t>
+          <t>Mouse session - Score: 0.265</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MOUSE_20260707_000</t>
+          <t>MOUSE_20260706_003</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10:47:05</t>
+          <t>09:11:33</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2746,58 +2746,58 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>24849</v>
+        <v>29421</v>
       </c>
       <c r="L17" t="n">
-        <v>24849</v>
+        <v>29421</v>
       </c>
       <c r="M17" t="n">
-        <v>10098.8</v>
+        <v>6307.77</v>
       </c>
       <c r="N17" t="n">
-        <v>6059.28</v>
+        <v>3784.66</v>
       </c>
       <c r="O17" t="n">
-        <v>4039.52</v>
+        <v>2523.11</v>
       </c>
       <c r="P17" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="Q17" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R17" t="n">
-        <v>70.56</v>
+        <v>120.73</v>
       </c>
       <c r="S17" t="n">
-        <v>143.12</v>
+        <v>52.25</v>
       </c>
       <c r="T17" t="n">
-        <v>28.27</v>
+        <v>35.23</v>
       </c>
       <c r="U17" t="n">
-        <v>85.87</v>
+        <v>31.35</v>
       </c>
       <c r="V17" t="n">
-        <v>57.25</v>
+        <v>20.9</v>
       </c>
       <c r="W17" t="n">
-        <v>27.13</v>
+        <v>8.94</v>
       </c>
       <c r="X17" t="n">
-        <v>21.07</v>
+        <v>4.18</v>
       </c>
       <c r="Y17" t="n">
-        <v>70.56</v>
+        <v>120.73</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.266</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-07-07 09:26:19</t>
+          <t>2026-07-07 17:04:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.258</t>
+          <t>Mouse session - Score: 0.269</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MOUSE_20260707_001</t>
+          <t>MOUSE_20260707_000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>09:26:19</t>
+          <t>17:04:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2844,58 +2844,58 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>28882</v>
+        <v>11366</v>
       </c>
       <c r="L18" t="n">
-        <v>28882</v>
+        <v>11366</v>
       </c>
       <c r="M18" t="n">
-        <v>22340.77</v>
+        <v>6737.24</v>
       </c>
       <c r="N18" t="n">
-        <v>13404.46</v>
+        <v>4042.34</v>
       </c>
       <c r="O18" t="n">
-        <v>8936.309999999999</v>
+        <v>2694.9</v>
       </c>
       <c r="P18" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R18" t="n">
-        <v>103.51</v>
+        <v>119.53</v>
       </c>
       <c r="S18" t="n">
-        <v>215.82</v>
+        <v>56.36</v>
       </c>
       <c r="T18" t="n">
-        <v>8.789999999999999</v>
+        <v>46.01</v>
       </c>
       <c r="U18" t="n">
-        <v>129.49</v>
+        <v>33.82</v>
       </c>
       <c r="V18" t="n">
-        <v>86.33</v>
+        <v>22.55</v>
       </c>
       <c r="W18" t="n">
-        <v>17.63</v>
+        <v>2.21</v>
       </c>
       <c r="X18" t="n">
-        <v>25.24</v>
+        <v>29.38</v>
       </c>
       <c r="Y18" t="n">
-        <v>103.51</v>
+        <v>119.53</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.258</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-07-07 16:20:42</t>
+          <t>2026-07-07 10:42:12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.390</t>
+          <t>Mouse session - Score: 0.442</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MOUSE_20260707_002</t>
+          <t>MOUSE_20260707_001</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16:20:42</t>
+          <t>10:42:12</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2942,58 +2942,58 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>25194</v>
+        <v>6218</v>
       </c>
       <c r="L19" t="n">
-        <v>25194</v>
+        <v>6218</v>
       </c>
       <c r="M19" t="n">
-        <v>18225.7</v>
+        <v>18284.86</v>
       </c>
       <c r="N19" t="n">
-        <v>10935.42</v>
+        <v>10970.91</v>
       </c>
       <c r="O19" t="n">
-        <v>7290.28</v>
+        <v>7313.94</v>
       </c>
       <c r="P19" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R19" t="n">
-        <v>178.65</v>
+        <v>133.34</v>
       </c>
       <c r="S19" t="n">
-        <v>102.02</v>
+        <v>137.13</v>
       </c>
       <c r="T19" t="n">
-        <v>29.66</v>
+        <v>34.7</v>
       </c>
       <c r="U19" t="n">
-        <v>61.21</v>
+        <v>82.28</v>
       </c>
       <c r="V19" t="n">
-        <v>40.81</v>
+        <v>54.85</v>
       </c>
       <c r="W19" t="n">
-        <v>15.59</v>
+        <v>16.59</v>
       </c>
       <c r="X19" t="n">
-        <v>9.960000000000001</v>
+        <v>29.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>178.65</v>
+        <v>133.34</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.39</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-07-08 12:34:45</t>
+          <t>2026-07-07 10:32:21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.334</t>
+          <t>Mouse session - Score: 0.876</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3013,25 +3013,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MOUSE_20260708_000</t>
+          <t>MOUSE_20260707_002</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-07</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>12:34:45</t>
+          <t>10:32:21</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3040,58 +3040,58 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>21812</v>
+        <v>9175</v>
       </c>
       <c r="L20" t="n">
-        <v>21812</v>
+        <v>9175</v>
       </c>
       <c r="M20" t="n">
-        <v>22017.7</v>
+        <v>29317.6</v>
       </c>
       <c r="N20" t="n">
-        <v>13210.62</v>
+        <v>17590.56</v>
       </c>
       <c r="O20" t="n">
-        <v>8807.08</v>
+        <v>11727.04</v>
       </c>
       <c r="P20" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="R20" t="n">
-        <v>40.78</v>
+        <v>136.23</v>
       </c>
       <c r="S20" t="n">
-        <v>539.88</v>
+        <v>215.21</v>
       </c>
       <c r="T20" t="n">
-        <v>12.89</v>
+        <v>44.49</v>
       </c>
       <c r="U20" t="n">
-        <v>323.93</v>
+        <v>129.13</v>
       </c>
       <c r="V20" t="n">
-        <v>215.95</v>
+        <v>86.08</v>
       </c>
       <c r="W20" t="n">
-        <v>26.71</v>
+        <v>2.36</v>
       </c>
       <c r="X20" t="n">
-        <v>17.67</v>
+        <v>5.18</v>
       </c>
       <c r="Y20" t="n">
-        <v>40.78</v>
+        <v>136.23</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.334</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-07-08 13:00:54</t>
+          <t>2026-07-07 13:46:59</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.426</t>
+          <t>Mouse session - Score: 0.258</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MOUSE_20260708_001</t>
+          <t>MOUSE_20260707_003</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-07</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>13:00:54</t>
+          <t>13:46:59</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3138,58 +3138,58 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>5732</v>
+        <v>20240</v>
       </c>
       <c r="L21" t="n">
-        <v>5732</v>
+        <v>20240</v>
       </c>
       <c r="M21" t="n">
-        <v>25715.19</v>
+        <v>22397.16</v>
       </c>
       <c r="N21" t="n">
-        <v>15429.11</v>
+        <v>13438.29</v>
       </c>
       <c r="O21" t="n">
-        <v>10286.08</v>
+        <v>8958.860000000001</v>
       </c>
       <c r="P21" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="Q21" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="R21" t="n">
-        <v>179.87</v>
+        <v>103.79</v>
       </c>
       <c r="S21" t="n">
-        <v>142.96</v>
+        <v>215.79</v>
       </c>
       <c r="T21" t="n">
-        <v>14.69</v>
+        <v>25.25</v>
       </c>
       <c r="U21" t="n">
-        <v>85.78</v>
+        <v>129.48</v>
       </c>
       <c r="V21" t="n">
-        <v>57.19</v>
+        <v>86.31999999999999</v>
       </c>
       <c r="W21" t="n">
-        <v>5.26</v>
+        <v>22.03</v>
       </c>
       <c r="X21" t="n">
-        <v>17.4</v>
+        <v>6.19</v>
       </c>
       <c r="Y21" t="n">
-        <v>179.87</v>
+        <v>103.79</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.426</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-07-08 15:05:03</t>
+          <t>2026-07-08 16:58:28</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.328</t>
+          <t>Mouse session - Score: 0.379</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MOUSE_20260708_002</t>
+          <t>MOUSE_20260708_000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>15:05:03</t>
+          <t>16:58:28</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3236,58 +3236,58 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>14181</v>
+        <v>14942</v>
       </c>
       <c r="L22" t="n">
-        <v>14181</v>
+        <v>14942</v>
       </c>
       <c r="M22" t="n">
-        <v>20735.21</v>
+        <v>15351.96</v>
       </c>
       <c r="N22" t="n">
-        <v>12441.13</v>
+        <v>9211.18</v>
       </c>
       <c r="O22" t="n">
-        <v>8294.09</v>
+        <v>6140.79</v>
       </c>
       <c r="P22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R22" t="n">
-        <v>114.23</v>
+        <v>109.16</v>
       </c>
       <c r="S22" t="n">
-        <v>181.52</v>
+        <v>140.64</v>
       </c>
       <c r="T22" t="n">
-        <v>7.27</v>
+        <v>37.29</v>
       </c>
       <c r="U22" t="n">
-        <v>108.91</v>
+        <v>84.38</v>
       </c>
       <c r="V22" t="n">
-        <v>72.61</v>
+        <v>56.26</v>
       </c>
       <c r="W22" t="n">
-        <v>14.92</v>
+        <v>25.99</v>
       </c>
       <c r="X22" t="n">
-        <v>7.73</v>
+        <v>12.53</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.23</v>
+        <v>109.16</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.328</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-07-09 17:43:07</t>
+          <t>2026-07-08 15:27:21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.355</t>
+          <t>Mouse session - Score: 0.300</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MOUSE_20260709_000</t>
+          <t>MOUSE_20260708_001</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3320,12 +3320,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>17:43:07</t>
+          <t>15:27:21</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3334,58 +3334,58 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>12995</v>
+        <v>22398</v>
       </c>
       <c r="L23" t="n">
-        <v>12995</v>
+        <v>22398</v>
       </c>
       <c r="M23" t="n">
-        <v>9912.379999999999</v>
+        <v>36388.76</v>
       </c>
       <c r="N23" t="n">
-        <v>5947.43</v>
+        <v>21833.26</v>
       </c>
       <c r="O23" t="n">
-        <v>3964.95</v>
+        <v>14555.51</v>
       </c>
       <c r="P23" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>59.3</v>
+        <v>142.16</v>
       </c>
       <c r="S23" t="n">
-        <v>167.15</v>
+        <v>255.96</v>
       </c>
       <c r="T23" t="n">
-        <v>39.37</v>
+        <v>38.9</v>
       </c>
       <c r="U23" t="n">
-        <v>100.29</v>
+        <v>153.58</v>
       </c>
       <c r="V23" t="n">
-        <v>66.86</v>
+        <v>102.39</v>
       </c>
       <c r="W23" t="n">
-        <v>21.3</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="X23" t="n">
-        <v>28.12</v>
+        <v>28.71</v>
       </c>
       <c r="Y23" t="n">
-        <v>59.3</v>
+        <v>142.16</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.355</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-07-09 14:20:58</t>
+          <t>2026-07-08 12:48:53</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.423</t>
+          <t>Mouse session - Score: 0.380</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MOUSE_20260709_001</t>
+          <t>MOUSE_20260708_002</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>14:20:58</t>
+          <t>12:48:53</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3432,58 +3432,58 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>23151</v>
+        <v>11047</v>
       </c>
       <c r="L24" t="n">
-        <v>23151</v>
+        <v>11047</v>
       </c>
       <c r="M24" t="n">
-        <v>13066.63</v>
+        <v>34116.82</v>
       </c>
       <c r="N24" t="n">
-        <v>7839.98</v>
+        <v>20470.09</v>
       </c>
       <c r="O24" t="n">
-        <v>5226.65</v>
+        <v>13646.73</v>
       </c>
       <c r="P24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q24" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="R24" t="n">
-        <v>151.62</v>
+        <v>167.65</v>
       </c>
       <c r="S24" t="n">
-        <v>86.18000000000001</v>
+        <v>203.51</v>
       </c>
       <c r="T24" t="n">
-        <v>9.24</v>
+        <v>19.8</v>
       </c>
       <c r="U24" t="n">
-        <v>51.71</v>
+        <v>122.1</v>
       </c>
       <c r="V24" t="n">
-        <v>34.47</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="W24" t="n">
-        <v>16.76</v>
+        <v>19.97</v>
       </c>
       <c r="X24" t="n">
-        <v>5.7</v>
+        <v>3.74</v>
       </c>
       <c r="Y24" t="n">
-        <v>151.62</v>
+        <v>167.65</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.423</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-07-09 09:29:00</t>
+          <t>2026-07-08 11:07:51</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.351</t>
+          <t>Mouse session - Score: 0.893</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3503,25 +3503,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MOUSE_20260709_002</t>
+          <t>MOUSE_20260708_003</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>09:29:00</t>
+          <t>11:07:51</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3530,58 +3530,58 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>29179</v>
+        <v>13261</v>
       </c>
       <c r="L25" t="n">
-        <v>29179</v>
+        <v>13261</v>
       </c>
       <c r="M25" t="n">
-        <v>32621.69</v>
+        <v>38133.35</v>
       </c>
       <c r="N25" t="n">
-        <v>19573.01</v>
+        <v>22880.01</v>
       </c>
       <c r="O25" t="n">
-        <v>13048.68</v>
+        <v>15253.34</v>
       </c>
       <c r="P25" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R25" t="n">
-        <v>57.91</v>
+        <v>82.95</v>
       </c>
       <c r="S25" t="n">
-        <v>563.3200000000001</v>
+        <v>459.71</v>
       </c>
       <c r="T25" t="n">
-        <v>46.02</v>
+        <v>39.13</v>
       </c>
       <c r="U25" t="n">
-        <v>337.99</v>
+        <v>275.82</v>
       </c>
       <c r="V25" t="n">
-        <v>225.33</v>
+        <v>183.88</v>
       </c>
       <c r="W25" t="n">
-        <v>22.43</v>
+        <v>4.01</v>
       </c>
       <c r="X25" t="n">
-        <v>2.27</v>
+        <v>22.66</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.91</v>
+        <v>82.95</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.351</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-07-10 14:46:10</t>
+          <t>2026-07-09 12:48:55</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.441</t>
+          <t>Mouse session - Score: 0.377</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MOUSE_20260710_000</t>
+          <t>MOUSE_20260709_000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3614,12 +3614,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>14:46:10</t>
+          <t>12:48:55</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3628,58 +3628,58 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>25772</v>
+        <v>21927</v>
       </c>
       <c r="L26" t="n">
-        <v>25772</v>
+        <v>21927</v>
       </c>
       <c r="M26" t="n">
-        <v>11983.35</v>
+        <v>25834.11</v>
       </c>
       <c r="N26" t="n">
-        <v>7190.01</v>
+        <v>15500.46</v>
       </c>
       <c r="O26" t="n">
-        <v>4793.34</v>
+        <v>10333.64</v>
       </c>
       <c r="P26" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Q26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R26" t="n">
-        <v>143.46</v>
+        <v>176.08</v>
       </c>
       <c r="S26" t="n">
-        <v>83.53</v>
+        <v>146.71</v>
       </c>
       <c r="T26" t="n">
-        <v>23.69</v>
+        <v>40.92</v>
       </c>
       <c r="U26" t="n">
-        <v>50.12</v>
+        <v>88.03</v>
       </c>
       <c r="V26" t="n">
-        <v>33.41</v>
+        <v>58.69</v>
       </c>
       <c r="W26" t="n">
-        <v>5.77</v>
+        <v>7.12</v>
       </c>
       <c r="X26" t="n">
-        <v>26.98</v>
+        <v>10.38</v>
       </c>
       <c r="Y26" t="n">
-        <v>143.46</v>
+        <v>176.08</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.441</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-07-10 15:29:24</t>
+          <t>2026-07-09 15:20:27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.357</t>
+          <t>Mouse session - Score: 0.394</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MOUSE_20260710_001</t>
+          <t>MOUSE_20260709_001</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3712,12 +3712,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>15:29:24</t>
+          <t>15:20:27</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3726,58 +3726,58 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>18307</v>
+        <v>14359</v>
       </c>
       <c r="L27" t="n">
-        <v>18307</v>
+        <v>14359</v>
       </c>
       <c r="M27" t="n">
-        <v>28013.6</v>
+        <v>14716.15</v>
       </c>
       <c r="N27" t="n">
-        <v>16808.16</v>
+        <v>8829.690000000001</v>
       </c>
       <c r="O27" t="n">
-        <v>11205.44</v>
+        <v>5886.46</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R27" t="n">
-        <v>165.58</v>
+        <v>101.84</v>
       </c>
       <c r="S27" t="n">
-        <v>169.19</v>
+        <v>144.51</v>
       </c>
       <c r="T27" t="n">
-        <v>27.98</v>
+        <v>12.38</v>
       </c>
       <c r="U27" t="n">
-        <v>101.51</v>
+        <v>86.7</v>
       </c>
       <c r="V27" t="n">
-        <v>67.67</v>
+        <v>57.8</v>
       </c>
       <c r="W27" t="n">
-        <v>5.56</v>
+        <v>21.84</v>
       </c>
       <c r="X27" t="n">
-        <v>10.69</v>
+        <v>25.84</v>
       </c>
       <c r="Y27" t="n">
-        <v>165.58</v>
+        <v>101.84</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.357</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-07-10 10:11:42</t>
+          <t>2026-07-09 09:59:46</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.389</t>
+          <t>Mouse session - Score: 0.360</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MOUSE_20260710_002</t>
+          <t>MOUSE_20260709_002</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3810,12 +3810,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10:11:42</t>
+          <t>09:59:46</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3824,58 +3824,58 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>14686</v>
+        <v>16503</v>
       </c>
       <c r="L28" t="n">
-        <v>14686</v>
+        <v>16503</v>
       </c>
       <c r="M28" t="n">
-        <v>17486.31</v>
+        <v>12674.45</v>
       </c>
       <c r="N28" t="n">
-        <v>10491.78</v>
+        <v>7604.67</v>
       </c>
       <c r="O28" t="n">
-        <v>6994.52</v>
+        <v>5069.78</v>
       </c>
       <c r="P28" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R28" t="n">
-        <v>44.07</v>
+        <v>84.17</v>
       </c>
       <c r="S28" t="n">
-        <v>396.8</v>
+        <v>150.59</v>
       </c>
       <c r="T28" t="n">
-        <v>26.17</v>
+        <v>24.11</v>
       </c>
       <c r="U28" t="n">
-        <v>238.08</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="V28" t="n">
-        <v>158.72</v>
+        <v>60.23</v>
       </c>
       <c r="W28" t="n">
-        <v>2.56</v>
+        <v>18.62</v>
       </c>
       <c r="X28" t="n">
-        <v>17.56</v>
+        <v>26.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.07</v>
+        <v>84.17</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.389</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-07-11 15:24:18</t>
+          <t>2026-07-09 17:02:57</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.441</t>
+          <t>Mouse session - Score: 0.310</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MOUSE_20260711_000</t>
+          <t>MOUSE_20260709_003</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>15:24:18</t>
+          <t>17:02:57</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3922,58 +3922,58 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>18734</v>
+        <v>25098</v>
       </c>
       <c r="L29" t="n">
-        <v>18734</v>
+        <v>25098</v>
       </c>
       <c r="M29" t="n">
-        <v>21526.5</v>
+        <v>11044.69</v>
       </c>
       <c r="N29" t="n">
-        <v>12915.9</v>
+        <v>6626.81</v>
       </c>
       <c r="O29" t="n">
-        <v>8610.6</v>
+        <v>4417.88</v>
       </c>
       <c r="P29" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R29" t="n">
-        <v>121.87</v>
+        <v>127.44</v>
       </c>
       <c r="S29" t="n">
-        <v>176.63</v>
+        <v>86.67</v>
       </c>
       <c r="T29" t="n">
-        <v>13.02</v>
+        <v>7.53</v>
       </c>
       <c r="U29" t="n">
-        <v>105.98</v>
+        <v>52</v>
       </c>
       <c r="V29" t="n">
-        <v>70.65000000000001</v>
+        <v>34.67</v>
       </c>
       <c r="W29" t="n">
-        <v>17.97</v>
+        <v>20.33</v>
       </c>
       <c r="X29" t="n">
-        <v>3.01</v>
+        <v>17.15</v>
       </c>
       <c r="Y29" t="n">
-        <v>121.87</v>
+        <v>127.44</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.441</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-07-11 13:56:24</t>
+          <t>2026-07-10 16:16:09</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.440</t>
+          <t>Mouse session - Score: 0.321</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MOUSE_20260711_001</t>
+          <t>MOUSE_20260710_000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>13:56:24</t>
+          <t>16:16:09</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4020,58 +4020,58 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>5985</v>
+        <v>12840</v>
       </c>
       <c r="L30" t="n">
-        <v>5985</v>
+        <v>12840</v>
       </c>
       <c r="M30" t="n">
-        <v>33223.81</v>
+        <v>22356.36</v>
       </c>
       <c r="N30" t="n">
-        <v>19934.29</v>
+        <v>13413.82</v>
       </c>
       <c r="O30" t="n">
-        <v>13289.53</v>
+        <v>8942.540000000001</v>
       </c>
       <c r="P30" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q30" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="R30" t="n">
-        <v>177.09</v>
+        <v>47.81</v>
       </c>
       <c r="S30" t="n">
-        <v>187.61</v>
+        <v>467.59</v>
       </c>
       <c r="T30" t="n">
-        <v>41.08</v>
+        <v>39.65</v>
       </c>
       <c r="U30" t="n">
-        <v>112.56</v>
+        <v>280.55</v>
       </c>
       <c r="V30" t="n">
-        <v>75.04000000000001</v>
+        <v>187.03</v>
       </c>
       <c r="W30" t="n">
-        <v>22.27</v>
+        <v>13.42</v>
       </c>
       <c r="X30" t="n">
-        <v>14.31</v>
+        <v>25.42</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.09</v>
+        <v>47.81</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.44</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-07-11 10:25:27</t>
+          <t>2026-07-10 09:52:03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.319</t>
+          <t>Mouse session - Score: 0.341</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MOUSE_20260711_002</t>
+          <t>MOUSE_20260710_001</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10:25:27</t>
+          <t>09:52:03</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4118,58 +4118,58 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>8197</v>
+        <v>13207</v>
       </c>
       <c r="L31" t="n">
-        <v>8197</v>
+        <v>13207</v>
       </c>
       <c r="M31" t="n">
-        <v>32057.39</v>
+        <v>22867.46</v>
       </c>
       <c r="N31" t="n">
-        <v>19234.44</v>
+        <v>13720.47</v>
       </c>
       <c r="O31" t="n">
-        <v>12822.96</v>
+        <v>9146.98</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R31" t="n">
-        <v>66.86</v>
+        <v>62.52</v>
       </c>
       <c r="S31" t="n">
-        <v>479.44</v>
+        <v>365.76</v>
       </c>
       <c r="T31" t="n">
-        <v>38.79</v>
+        <v>24.5</v>
       </c>
       <c r="U31" t="n">
-        <v>287.67</v>
+        <v>219.45</v>
       </c>
       <c r="V31" t="n">
-        <v>191.78</v>
+        <v>146.3</v>
       </c>
       <c r="W31" t="n">
-        <v>15.88</v>
+        <v>2.3</v>
       </c>
       <c r="X31" t="n">
         <v>5.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.86</v>
+        <v>62.52</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.319</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-07-13 14:25:23</t>
+          <t>2026-07-10 10:22:45</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.322</t>
+          <t>Mouse session - Score: 0.323</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MOUSE_20260713_000</t>
+          <t>MOUSE_20260710_002</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4202,12 +4202,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>14:25:23</t>
+          <t>10:22:45</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4216,58 +4216,58 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>11033</v>
+        <v>27560</v>
       </c>
       <c r="L32" t="n">
-        <v>11033</v>
+        <v>27560</v>
       </c>
       <c r="M32" t="n">
-        <v>22528.37</v>
+        <v>36019.18</v>
       </c>
       <c r="N32" t="n">
-        <v>13517.02</v>
+        <v>21611.51</v>
       </c>
       <c r="O32" t="n">
-        <v>9011.35</v>
+        <v>14407.67</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="Q32" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="R32" t="n">
-        <v>131.4</v>
+        <v>134.88</v>
       </c>
       <c r="S32" t="n">
-        <v>171.44</v>
+        <v>267.06</v>
       </c>
       <c r="T32" t="n">
-        <v>41.22</v>
+        <v>39.54</v>
       </c>
       <c r="U32" t="n">
-        <v>102.87</v>
+        <v>160.23</v>
       </c>
       <c r="V32" t="n">
-        <v>68.58</v>
+        <v>106.82</v>
       </c>
       <c r="W32" t="n">
-        <v>26.75</v>
+        <v>27.43</v>
       </c>
       <c r="X32" t="n">
-        <v>2.94</v>
+        <v>21.35</v>
       </c>
       <c r="Y32" t="n">
-        <v>131.4</v>
+        <v>134.88</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.322</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-07-13 15:39:57</t>
+          <t>2026-07-10 17:43:37</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.285</t>
+          <t>Mouse session - Score: 0.438</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MOUSE_20260713_001</t>
+          <t>MOUSE_20260710_003</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4300,12 +4300,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>15:39:57</t>
+          <t>17:43:37</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4314,58 +4314,58 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>27574</v>
+        <v>14103</v>
       </c>
       <c r="L33" t="n">
-        <v>27574</v>
+        <v>14103</v>
       </c>
       <c r="M33" t="n">
-        <v>21461.71</v>
+        <v>9207.25</v>
       </c>
       <c r="N33" t="n">
-        <v>12877.02</v>
+        <v>5524.35</v>
       </c>
       <c r="O33" t="n">
-        <v>8584.68</v>
+        <v>3682.9</v>
       </c>
       <c r="P33" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="Q33" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R33" t="n">
-        <v>110.09</v>
+        <v>171.72</v>
       </c>
       <c r="S33" t="n">
-        <v>194.94</v>
+        <v>53.62</v>
       </c>
       <c r="T33" t="n">
-        <v>29.98</v>
+        <v>47.88</v>
       </c>
       <c r="U33" t="n">
-        <v>116.97</v>
+        <v>32.17</v>
       </c>
       <c r="V33" t="n">
-        <v>77.98</v>
+        <v>21.45</v>
       </c>
       <c r="W33" t="n">
-        <v>15.08</v>
+        <v>14.62</v>
       </c>
       <c r="X33" t="n">
-        <v>28.58</v>
+        <v>25.61</v>
       </c>
       <c r="Y33" t="n">
-        <v>110.09</v>
+        <v>171.72</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.285</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-07-13 17:09:31</t>
+          <t>2026-07-13 12:35:10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.277</t>
+          <t>Mouse session - Score: 0.295</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MOUSE_20260713_002</t>
+          <t>MOUSE_20260713_000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>17:09:31</t>
+          <t>12:35:10</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4412,58 +4412,58 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>22017</v>
+        <v>10607</v>
       </c>
       <c r="L34" t="n">
-        <v>22017</v>
+        <v>10607</v>
       </c>
       <c r="M34" t="n">
-        <v>25090.95</v>
+        <v>24591.71</v>
       </c>
       <c r="N34" t="n">
-        <v>15054.57</v>
+        <v>14755.03</v>
       </c>
       <c r="O34" t="n">
-        <v>10036.38</v>
+        <v>9836.68</v>
       </c>
       <c r="P34" t="n">
         <v>9</v>
       </c>
       <c r="Q34" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>92.97</v>
+        <v>121.36</v>
       </c>
       <c r="S34" t="n">
-        <v>269.87</v>
+        <v>202.64</v>
       </c>
       <c r="T34" t="n">
-        <v>34.18</v>
+        <v>27.16</v>
       </c>
       <c r="U34" t="n">
-        <v>161.92</v>
+        <v>121.58</v>
       </c>
       <c r="V34" t="n">
-        <v>107.95</v>
+        <v>81.06</v>
       </c>
       <c r="W34" t="n">
-        <v>10.35</v>
+        <v>11.75</v>
       </c>
       <c r="X34" t="n">
-        <v>17.4</v>
+        <v>3.52</v>
       </c>
       <c r="Y34" t="n">
-        <v>92.97</v>
+        <v>121.36</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.277</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-07-14 14:47:09</t>
+          <t>2026-07-13 11:49:49</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.331</t>
+          <t>Mouse session - Score: 0.433</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MOUSE_20260714_000</t>
+          <t>MOUSE_20260713_001</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4496,12 +4496,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>14:47:09</t>
+          <t>11:49:49</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4510,58 +4510,58 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>11201</v>
+        <v>13111</v>
       </c>
       <c r="L35" t="n">
-        <v>11201</v>
+        <v>13111</v>
       </c>
       <c r="M35" t="n">
-        <v>8494.440000000001</v>
+        <v>37326.16</v>
       </c>
       <c r="N35" t="n">
-        <v>5096.66</v>
+        <v>22395.7</v>
       </c>
       <c r="O35" t="n">
-        <v>3397.77</v>
+        <v>14930.46</v>
       </c>
       <c r="P35" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="R35" t="n">
-        <v>109.34</v>
+        <v>115.48</v>
       </c>
       <c r="S35" t="n">
-        <v>77.69</v>
+        <v>323.22</v>
       </c>
       <c r="T35" t="n">
-        <v>48.74</v>
+        <v>36.34</v>
       </c>
       <c r="U35" t="n">
-        <v>46.62</v>
+        <v>193.93</v>
       </c>
       <c r="V35" t="n">
-        <v>31.08</v>
+        <v>129.29</v>
       </c>
       <c r="W35" t="n">
-        <v>7.19</v>
+        <v>22.89</v>
       </c>
       <c r="X35" t="n">
-        <v>24.44</v>
+        <v>5.44</v>
       </c>
       <c r="Y35" t="n">
-        <v>109.34</v>
+        <v>115.48</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.331</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-07-14 14:33:23</t>
+          <t>2026-07-13 11:08:38</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.449</t>
+          <t>Mouse session - Score: 0.360</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MOUSE_20260714_001</t>
+          <t>MOUSE_20260713_002</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4594,12 +4594,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>14:33:23</t>
+          <t>11:08:38</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4608,58 +4608,58 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>19026</v>
+        <v>26220</v>
       </c>
       <c r="L36" t="n">
-        <v>19026</v>
+        <v>26220</v>
       </c>
       <c r="M36" t="n">
-        <v>16477.83</v>
+        <v>22188.93</v>
       </c>
       <c r="N36" t="n">
-        <v>9886.700000000001</v>
+        <v>13313.36</v>
       </c>
       <c r="O36" t="n">
-        <v>6591.13</v>
+        <v>8875.57</v>
       </c>
       <c r="P36" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="Q36" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R36" t="n">
-        <v>73.53</v>
+        <v>46.15</v>
       </c>
       <c r="S36" t="n">
-        <v>224.1</v>
+        <v>480.81</v>
       </c>
       <c r="T36" t="n">
-        <v>23.93</v>
+        <v>32.84</v>
       </c>
       <c r="U36" t="n">
-        <v>134.46</v>
+        <v>288.48</v>
       </c>
       <c r="V36" t="n">
-        <v>89.64</v>
+        <v>192.32</v>
       </c>
       <c r="W36" t="n">
-        <v>13.12</v>
+        <v>24.92</v>
       </c>
       <c r="X36" t="n">
-        <v>5.6</v>
+        <v>28.31</v>
       </c>
       <c r="Y36" t="n">
-        <v>73.53</v>
+        <v>46.15</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.449</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-07-14 13:30:21</t>
+          <t>2026-07-13 15:35:22</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.396</t>
+          <t>Mouse session - Score: 0.296</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MOUSE_20260714_002</t>
+          <t>MOUSE_20260713_003</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4692,12 +4692,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>13:30:21</t>
+          <t>15:35:22</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4706,58 +4706,58 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>6986</v>
+        <v>16680</v>
       </c>
       <c r="L37" t="n">
-        <v>6986</v>
+        <v>16680</v>
       </c>
       <c r="M37" t="n">
-        <v>17429</v>
+        <v>38757.37</v>
       </c>
       <c r="N37" t="n">
-        <v>10457.4</v>
+        <v>23254.42</v>
       </c>
       <c r="O37" t="n">
-        <v>6971.6</v>
+        <v>15502.95</v>
       </c>
       <c r="P37" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="Q37" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="R37" t="n">
-        <v>168.94</v>
+        <v>104.11</v>
       </c>
       <c r="S37" t="n">
-        <v>103.16</v>
+        <v>372.28</v>
       </c>
       <c r="T37" t="n">
-        <v>18.4</v>
+        <v>33.77</v>
       </c>
       <c r="U37" t="n">
-        <v>61.9</v>
+        <v>223.37</v>
       </c>
       <c r="V37" t="n">
-        <v>41.27</v>
+        <v>148.91</v>
       </c>
       <c r="W37" t="n">
-        <v>14.05</v>
+        <v>9.98</v>
       </c>
       <c r="X37" t="n">
-        <v>19.88</v>
+        <v>28.05</v>
       </c>
       <c r="Y37" t="n">
-        <v>168.94</v>
+        <v>104.11</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.396</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-07-15 10:14:52</t>
+          <t>2026-07-14 15:07:43</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.349</t>
+          <t>Mouse session - Score: 0.441</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MOUSE_20260715_000</t>
+          <t>MOUSE_20260714_000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10:14:52</t>
+          <t>15:07:43</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4804,58 +4804,58 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>23500</v>
+        <v>10097</v>
       </c>
       <c r="L38" t="n">
-        <v>23500</v>
+        <v>10097</v>
       </c>
       <c r="M38" t="n">
-        <v>35245.76</v>
+        <v>13028.27</v>
       </c>
       <c r="N38" t="n">
-        <v>21147.46</v>
+        <v>7816.96</v>
       </c>
       <c r="O38" t="n">
-        <v>14098.31</v>
+        <v>5211.31</v>
       </c>
       <c r="P38" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="Q38" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>146.42</v>
+        <v>97.03</v>
       </c>
       <c r="S38" t="n">
-        <v>240.72</v>
+        <v>134.27</v>
       </c>
       <c r="T38" t="n">
-        <v>37.97</v>
+        <v>41.78</v>
       </c>
       <c r="U38" t="n">
-        <v>144.43</v>
+        <v>80.56</v>
       </c>
       <c r="V38" t="n">
-        <v>96.29000000000001</v>
+        <v>53.71</v>
       </c>
       <c r="W38" t="n">
-        <v>14.61</v>
+        <v>29.8</v>
       </c>
       <c r="X38" t="n">
-        <v>20.16</v>
+        <v>18.28</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.42</v>
+        <v>97.03</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.349</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-07-15 10:47:23</t>
+          <t>2026-07-14 15:11:51</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.442</t>
+          <t>Mouse session - Score: 0.347</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MOUSE_20260715_001</t>
+          <t>MOUSE_20260714_001</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4888,12 +4888,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>10:47:23</t>
+          <t>15:11:51</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -4902,58 +4902,58 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>15804</v>
+        <v>10611</v>
       </c>
       <c r="L39" t="n">
-        <v>15804</v>
+        <v>10611</v>
       </c>
       <c r="M39" t="n">
-        <v>6276.55</v>
+        <v>24983.09</v>
       </c>
       <c r="N39" t="n">
-        <v>3765.93</v>
+        <v>14989.86</v>
       </c>
       <c r="O39" t="n">
-        <v>2510.62</v>
+        <v>9993.24</v>
       </c>
       <c r="P39" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q39" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="R39" t="n">
-        <v>150.36</v>
+        <v>59.88</v>
       </c>
       <c r="S39" t="n">
-        <v>41.74</v>
+        <v>417.2</v>
       </c>
       <c r="T39" t="n">
-        <v>5.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U39" t="n">
-        <v>25.05</v>
+        <v>250.32</v>
       </c>
       <c r="V39" t="n">
-        <v>16.7</v>
+        <v>166.88</v>
       </c>
       <c r="W39" t="n">
-        <v>29.22</v>
+        <v>7.78</v>
       </c>
       <c r="X39" t="n">
-        <v>3.85</v>
+        <v>4.16</v>
       </c>
       <c r="Y39" t="n">
-        <v>150.36</v>
+        <v>59.88</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.442</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-07-15 10:53:30</t>
+          <t>2026-07-14 16:49:59</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.296</t>
+          <t>Mouse session - Score: 0.251</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MOUSE_20260715_002</t>
+          <t>MOUSE_20260714_002</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4986,12 +4986,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>10:53:30</t>
+          <t>16:49:59</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5000,58 +5000,58 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>14316</v>
+        <v>29037</v>
       </c>
       <c r="L40" t="n">
-        <v>14316</v>
+        <v>29037</v>
       </c>
       <c r="M40" t="n">
-        <v>13158.94</v>
+        <v>13378.74</v>
       </c>
       <c r="N40" t="n">
-        <v>7895.36</v>
+        <v>8027.25</v>
       </c>
       <c r="O40" t="n">
-        <v>5263.58</v>
+        <v>5351.5</v>
       </c>
       <c r="P40" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="R40" t="n">
-        <v>111.95</v>
+        <v>118.39</v>
       </c>
       <c r="S40" t="n">
-        <v>117.54</v>
+        <v>113</v>
       </c>
       <c r="T40" t="n">
-        <v>39.15</v>
+        <v>41.87</v>
       </c>
       <c r="U40" t="n">
-        <v>70.52</v>
+        <v>67.8</v>
       </c>
       <c r="V40" t="n">
-        <v>47.02</v>
+        <v>45.2</v>
       </c>
       <c r="W40" t="n">
-        <v>6.91</v>
+        <v>16.84</v>
       </c>
       <c r="X40" t="n">
-        <v>14.38</v>
+        <v>15.02</v>
       </c>
       <c r="Y40" t="n">
-        <v>111.95</v>
+        <v>118.39</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.296</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-07-16 12:33:27</t>
+          <t>2026-07-14 10:02:37</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.359</t>
+          <t>Mouse session - Score: 0.307</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MOUSE_20260716_000</t>
+          <t>MOUSE_20260714_003</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -5084,12 +5084,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>12:33:27</t>
+          <t>10:02:37</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5098,58 +5098,58 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>20922</v>
+        <v>18924</v>
       </c>
       <c r="L41" t="n">
-        <v>20922</v>
+        <v>18924</v>
       </c>
       <c r="M41" t="n">
-        <v>26993</v>
+        <v>23612.55</v>
       </c>
       <c r="N41" t="n">
-        <v>16195.8</v>
+        <v>14167.53</v>
       </c>
       <c r="O41" t="n">
-        <v>10797.2</v>
+        <v>9445.02</v>
       </c>
       <c r="P41" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R41" t="n">
-        <v>90.54000000000001</v>
+        <v>148.18</v>
       </c>
       <c r="S41" t="n">
-        <v>298.13</v>
+        <v>159.35</v>
       </c>
       <c r="T41" t="n">
-        <v>19.49</v>
+        <v>40.25</v>
       </c>
       <c r="U41" t="n">
-        <v>178.88</v>
+        <v>95.61</v>
       </c>
       <c r="V41" t="n">
-        <v>119.25</v>
+        <v>63.74</v>
       </c>
       <c r="W41" t="n">
-        <v>16.65</v>
+        <v>27.73</v>
       </c>
       <c r="X41" t="n">
-        <v>19.53</v>
+        <v>9.48</v>
       </c>
       <c r="Y41" t="n">
-        <v>90.54000000000001</v>
+        <v>148.18</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.359</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-07-16 11:12:22</t>
+          <t>2026-07-15 15:10:33</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.309</t>
+          <t>Mouse session - Score: 0.329</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MOUSE_20260716_001</t>
+          <t>MOUSE_20260715_000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5182,12 +5182,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>11:12:22</t>
+          <t>15:10:33</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5196,58 +5196,58 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>24781</v>
+        <v>8882</v>
       </c>
       <c r="L42" t="n">
-        <v>24781</v>
+        <v>8882</v>
       </c>
       <c r="M42" t="n">
-        <v>21739.73</v>
+        <v>24577.33</v>
       </c>
       <c r="N42" t="n">
-        <v>13043.84</v>
+        <v>14746.4</v>
       </c>
       <c r="O42" t="n">
-        <v>8695.889999999999</v>
+        <v>9830.93</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q42" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R42" t="n">
-        <v>98.42</v>
+        <v>55.37</v>
       </c>
       <c r="S42" t="n">
-        <v>220.89</v>
+        <v>443.9</v>
       </c>
       <c r="T42" t="n">
-        <v>32.19</v>
+        <v>29.45</v>
       </c>
       <c r="U42" t="n">
-        <v>132.53</v>
+        <v>266.34</v>
       </c>
       <c r="V42" t="n">
-        <v>88.34999999999999</v>
+        <v>177.56</v>
       </c>
       <c r="W42" t="n">
-        <v>8.66</v>
+        <v>28.53</v>
       </c>
       <c r="X42" t="n">
-        <v>23.62</v>
+        <v>29.86</v>
       </c>
       <c r="Y42" t="n">
-        <v>98.42</v>
+        <v>55.37</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.309</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-07-16 17:06:45</t>
+          <t>2026-07-15 09:04:41</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.334</t>
+          <t>Mouse session - Score: 0.426</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MOUSE_20260716_002</t>
+          <t>MOUSE_20260715_001</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5280,12 +5280,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>17:06:45</t>
+          <t>09:04:41</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5294,58 +5294,58 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>13420</v>
+        <v>23674</v>
       </c>
       <c r="L43" t="n">
-        <v>13420</v>
+        <v>23674</v>
       </c>
       <c r="M43" t="n">
-        <v>5728.44</v>
+        <v>8641.99</v>
       </c>
       <c r="N43" t="n">
-        <v>3437.06</v>
+        <v>5185.19</v>
       </c>
       <c r="O43" t="n">
-        <v>2291.38</v>
+        <v>3456.8</v>
       </c>
       <c r="P43" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="Q43" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="R43" t="n">
-        <v>93.48</v>
+        <v>120.32</v>
       </c>
       <c r="S43" t="n">
-        <v>61.28</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="T43" t="n">
-        <v>9.779999999999999</v>
+        <v>10.71</v>
       </c>
       <c r="U43" t="n">
-        <v>36.77</v>
+        <v>43.09</v>
       </c>
       <c r="V43" t="n">
-        <v>24.51</v>
+        <v>28.73</v>
       </c>
       <c r="W43" t="n">
-        <v>29.36</v>
+        <v>11.2</v>
       </c>
       <c r="X43" t="n">
-        <v>25.41</v>
+        <v>15.06</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.48</v>
+        <v>120.32</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.334</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-07-17 12:18:35</t>
+          <t>2026-07-15 15:28:56</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.873</t>
+          <t>Mouse session - Score: 0.259</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -5365,25 +5365,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MOUSE_20260717_000</t>
+          <t>MOUSE_20260715_002</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>12:18:35</t>
+          <t>15:28:56</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5392,58 +5392,58 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>19126</v>
+        <v>13380</v>
       </c>
       <c r="L44" t="n">
-        <v>19126</v>
+        <v>13380</v>
       </c>
       <c r="M44" t="n">
-        <v>20747.95</v>
+        <v>15236.23</v>
       </c>
       <c r="N44" t="n">
-        <v>12448.77</v>
+        <v>9141.74</v>
       </c>
       <c r="O44" t="n">
-        <v>8299.18</v>
+        <v>6094.49</v>
       </c>
       <c r="P44" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="R44" t="n">
-        <v>160.65</v>
+        <v>107.67</v>
       </c>
       <c r="S44" t="n">
-        <v>129.15</v>
+        <v>141.51</v>
       </c>
       <c r="T44" t="n">
-        <v>48.52</v>
+        <v>31.99</v>
       </c>
       <c r="U44" t="n">
-        <v>77.48999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="V44" t="n">
-        <v>51.66</v>
+        <v>56.6</v>
       </c>
       <c r="W44" t="n">
-        <v>7.18</v>
+        <v>10.29</v>
       </c>
       <c r="X44" t="n">
-        <v>10.23</v>
+        <v>27.79</v>
       </c>
       <c r="Y44" t="n">
-        <v>160.65</v>
+        <v>107.67</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.873</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-07-17 10:58:34</t>
+          <t>2026-07-15 15:11:09</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.807</t>
+          <t>Mouse session - Score: 0.383</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5463,25 +5463,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MOUSE_20260717_001</t>
+          <t>MOUSE_20260715_003</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10:58:34</t>
+          <t>15:11:09</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5490,58 +5490,58 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>5982</v>
+        <v>21903</v>
       </c>
       <c r="L45" t="n">
-        <v>5982</v>
+        <v>21903</v>
       </c>
       <c r="M45" t="n">
-        <v>17191.48</v>
+        <v>7875.11</v>
       </c>
       <c r="N45" t="n">
-        <v>10314.89</v>
+        <v>4725.07</v>
       </c>
       <c r="O45" t="n">
-        <v>6876.59</v>
+        <v>3150.04</v>
       </c>
       <c r="P45" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R45" t="n">
-        <v>84.54000000000001</v>
+        <v>149.11</v>
       </c>
       <c r="S45" t="n">
-        <v>203.35</v>
+        <v>52.81</v>
       </c>
       <c r="T45" t="n">
-        <v>27</v>
+        <v>23.48</v>
       </c>
       <c r="U45" t="n">
-        <v>122.01</v>
+        <v>31.69</v>
       </c>
       <c r="V45" t="n">
-        <v>81.34</v>
+        <v>21.13</v>
       </c>
       <c r="W45" t="n">
-        <v>25.44</v>
+        <v>9.59</v>
       </c>
       <c r="X45" t="n">
-        <v>12.54</v>
+        <v>4.67</v>
       </c>
       <c r="Y45" t="n">
-        <v>84.54000000000001</v>
+        <v>149.11</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-07-17 12:01:00</t>
+          <t>2026-07-16 11:18:16</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.437</t>
+          <t>Mouse session - Score: 0.371</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MOUSE_20260717_002</t>
+          <t>MOUSE_20260716_000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5574,12 +5574,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>12:01:00</t>
+          <t>11:18:16</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5588,58 +5588,58 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>29422</v>
+        <v>7777</v>
       </c>
       <c r="L46" t="n">
-        <v>29422</v>
+        <v>7777</v>
       </c>
       <c r="M46" t="n">
-        <v>28725.92</v>
+        <v>18252.19</v>
       </c>
       <c r="N46" t="n">
-        <v>17235.55</v>
+        <v>10951.31</v>
       </c>
       <c r="O46" t="n">
-        <v>11490.37</v>
+        <v>7300.88</v>
       </c>
       <c r="P46" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q46" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R46" t="n">
-        <v>71</v>
+        <v>66.38</v>
       </c>
       <c r="S46" t="n">
-        <v>404.6</v>
+        <v>274.97</v>
       </c>
       <c r="T46" t="n">
-        <v>42.62</v>
+        <v>13.53</v>
       </c>
       <c r="U46" t="n">
-        <v>242.76</v>
+        <v>164.98</v>
       </c>
       <c r="V46" t="n">
-        <v>161.84</v>
+        <v>109.99</v>
       </c>
       <c r="W46" t="n">
-        <v>5.68</v>
+        <v>27.55</v>
       </c>
       <c r="X46" t="n">
-        <v>4.84</v>
+        <v>18.3</v>
       </c>
       <c r="Y46" t="n">
-        <v>71</v>
+        <v>66.38</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.437</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-07-19 13:55:06</t>
+          <t>2026-07-16 11:16:14</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.329</t>
+          <t>Mouse session - Score: 0.281</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MOUSE_20260719_000</t>
+          <t>MOUSE_20260716_001</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5672,12 +5672,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-07-19</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>13:55:06</t>
+          <t>11:16:14</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5686,58 +5686,58 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>5613</v>
+        <v>7145</v>
       </c>
       <c r="L47" t="n">
-        <v>5613</v>
+        <v>7145</v>
       </c>
       <c r="M47" t="n">
-        <v>7516.71</v>
+        <v>29737.33</v>
       </c>
       <c r="N47" t="n">
-        <v>4510.03</v>
+        <v>17842.4</v>
       </c>
       <c r="O47" t="n">
-        <v>3006.68</v>
+        <v>11894.93</v>
       </c>
       <c r="P47" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="Q47" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R47" t="n">
-        <v>174.96</v>
+        <v>177.75</v>
       </c>
       <c r="S47" t="n">
-        <v>42.96</v>
+        <v>167.3</v>
       </c>
       <c r="T47" t="n">
-        <v>11.18</v>
+        <v>12.15</v>
       </c>
       <c r="U47" t="n">
-        <v>25.78</v>
+        <v>100.38</v>
       </c>
       <c r="V47" t="n">
-        <v>17.18</v>
+        <v>66.92</v>
       </c>
       <c r="W47" t="n">
-        <v>24.78</v>
+        <v>2.57</v>
       </c>
       <c r="X47" t="n">
-        <v>22.19</v>
+        <v>16.36</v>
       </c>
       <c r="Y47" t="n">
-        <v>174.96</v>
+        <v>177.75</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.329</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-07-19 09:07:55</t>
+          <t>2026-07-16 15:50:59</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.377</t>
+          <t>Mouse session - Score: 0.309</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MOUSE_20260719_001</t>
+          <t>MOUSE_20260716_002</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5770,12 +5770,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-07-19</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>09:07:55</t>
+          <t>15:50:59</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -5784,58 +5784,58 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>27171</v>
+        <v>12150</v>
       </c>
       <c r="L48" t="n">
-        <v>27171</v>
+        <v>12150</v>
       </c>
       <c r="M48" t="n">
-        <v>10160.94</v>
+        <v>33057.51</v>
       </c>
       <c r="N48" t="n">
-        <v>6096.56</v>
+        <v>19834.5</v>
       </c>
       <c r="O48" t="n">
-        <v>4064.38</v>
+        <v>13223</v>
       </c>
       <c r="P48" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="Q48" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="R48" t="n">
-        <v>139.32</v>
+        <v>162.85</v>
       </c>
       <c r="S48" t="n">
-        <v>72.93000000000001</v>
+        <v>202.99</v>
       </c>
       <c r="T48" t="n">
-        <v>28.41</v>
+        <v>21.37</v>
       </c>
       <c r="U48" t="n">
-        <v>43.76</v>
+        <v>121.79</v>
       </c>
       <c r="V48" t="n">
-        <v>29.17</v>
+        <v>81.2</v>
       </c>
       <c r="W48" t="n">
-        <v>26.11</v>
+        <v>19.21</v>
       </c>
       <c r="X48" t="n">
-        <v>18.08</v>
+        <v>4.51</v>
       </c>
       <c r="Y48" t="n">
-        <v>139.32</v>
+        <v>162.85</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.377</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-07-19 17:54:13</t>
+          <t>2026-07-16 13:43:25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.352</t>
+          <t>Mouse session - Score: 0.398</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MOUSE_20260719_002</t>
+          <t>MOUSE_20260716_003</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5868,12 +5868,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-07-19</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>17:54:13</t>
+          <t>13:43:25</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5882,58 +5882,58 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>29931</v>
+        <v>24509</v>
       </c>
       <c r="L49" t="n">
-        <v>29931</v>
+        <v>24509</v>
       </c>
       <c r="M49" t="n">
-        <v>24425.17</v>
+        <v>21743.84</v>
       </c>
       <c r="N49" t="n">
-        <v>14655.1</v>
+        <v>13046.3</v>
       </c>
       <c r="O49" t="n">
-        <v>9770.07</v>
+        <v>8697.540000000001</v>
       </c>
       <c r="P49" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q49" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R49" t="n">
-        <v>57.36</v>
+        <v>31.16</v>
       </c>
       <c r="S49" t="n">
-        <v>425.82</v>
+        <v>697.92</v>
       </c>
       <c r="T49" t="n">
-        <v>42.29</v>
+        <v>29.35</v>
       </c>
       <c r="U49" t="n">
-        <v>255.49</v>
+        <v>418.75</v>
       </c>
       <c r="V49" t="n">
-        <v>170.33</v>
+        <v>279.17</v>
       </c>
       <c r="W49" t="n">
-        <v>9.93</v>
+        <v>19.41</v>
       </c>
       <c r="X49" t="n">
-        <v>6.04</v>
+        <v>10.72</v>
       </c>
       <c r="Y49" t="n">
-        <v>57.36</v>
+        <v>31.16</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.352</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-07-20 14:39:54</t>
+          <t>2026-07-17 11:03:45</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.309</t>
+          <t>Mouse session - Score: 0.371</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MOUSE_20260720_000</t>
+          <t>MOUSE_20260717_000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5966,12 +5966,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>14:39:54</t>
+          <t>11:03:45</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -5980,58 +5980,58 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>15860</v>
+        <v>14001</v>
       </c>
       <c r="L50" t="n">
-        <v>15860</v>
+        <v>14001</v>
       </c>
       <c r="M50" t="n">
-        <v>35720.55</v>
+        <v>6442.44</v>
       </c>
       <c r="N50" t="n">
-        <v>21432.33</v>
+        <v>3865.46</v>
       </c>
       <c r="O50" t="n">
-        <v>14288.22</v>
+        <v>2576.98</v>
       </c>
       <c r="P50" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="R50" t="n">
-        <v>33.13</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="S50" t="n">
-        <v>1078.09</v>
+        <v>99.06</v>
       </c>
       <c r="T50" t="n">
-        <v>31.74</v>
+        <v>36.35</v>
       </c>
       <c r="U50" t="n">
-        <v>646.85</v>
+        <v>59.44</v>
       </c>
       <c r="V50" t="n">
-        <v>431.23</v>
+        <v>39.62</v>
       </c>
       <c r="W50" t="n">
-        <v>26.72</v>
+        <v>22</v>
       </c>
       <c r="X50" t="n">
-        <v>7.5</v>
+        <v>9.19</v>
       </c>
       <c r="Y50" t="n">
-        <v>33.13</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.309</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-07-20 13:54:16</t>
+          <t>2026-07-17 16:53:17</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.355</t>
+          <t>Mouse session - Score: 0.444</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MOUSE_20260720_001</t>
+          <t>MOUSE_20260717_001</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6064,12 +6064,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>13:54:16</t>
+          <t>16:53:17</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -6078,58 +6078,58 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>15044</v>
+        <v>20195</v>
       </c>
       <c r="L51" t="n">
-        <v>15044</v>
+        <v>20195</v>
       </c>
       <c r="M51" t="n">
-        <v>35224.17</v>
+        <v>33901.29</v>
       </c>
       <c r="N51" t="n">
-        <v>21134.5</v>
+        <v>20340.77</v>
       </c>
       <c r="O51" t="n">
-        <v>14089.67</v>
+        <v>13560.52</v>
       </c>
       <c r="P51" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q51" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="R51" t="n">
-        <v>137.5</v>
+        <v>156.44</v>
       </c>
       <c r="S51" t="n">
-        <v>256.18</v>
+        <v>216.7</v>
       </c>
       <c r="T51" t="n">
-        <v>7.65</v>
+        <v>18.88</v>
       </c>
       <c r="U51" t="n">
-        <v>153.71</v>
+        <v>130.02</v>
       </c>
       <c r="V51" t="n">
-        <v>102.47</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="W51" t="n">
-        <v>2.06</v>
+        <v>22.69</v>
       </c>
       <c r="X51" t="n">
-        <v>4.17</v>
+        <v>7.7</v>
       </c>
       <c r="Y51" t="n">
-        <v>137.5</v>
+        <v>156.44</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.355</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-07-20 10:25:04</t>
+          <t>2026-07-17 12:37:43</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.402</t>
+          <t>Mouse session - Score: 0.928</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -6149,85 +6149,85 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MOUSE_20260720_002</t>
+          <t>MOUSE_20260717_002</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2026-07-17</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>12:37:43</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>13143</v>
+      </c>
+      <c r="L52" t="n">
+        <v>13143</v>
+      </c>
+      <c r="M52" t="n">
+        <v>33898.85</v>
+      </c>
+      <c r="N52" t="n">
+        <v>20339.31</v>
+      </c>
+      <c r="O52" t="n">
+        <v>13559.54</v>
+      </c>
+      <c r="P52" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2026-07-20</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>10:25:04</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>10619</v>
-      </c>
-      <c r="L52" t="n">
-        <v>10619</v>
-      </c>
-      <c r="M52" t="n">
-        <v>11359.99</v>
-      </c>
-      <c r="N52" t="n">
-        <v>6815.99</v>
-      </c>
-      <c r="O52" t="n">
-        <v>4543.99</v>
-      </c>
-      <c r="P52" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>14</v>
-      </c>
       <c r="R52" t="n">
-        <v>97.04000000000001</v>
+        <v>103.17</v>
       </c>
       <c r="S52" t="n">
-        <v>117.06</v>
+        <v>328.58</v>
       </c>
       <c r="T52" t="n">
-        <v>33.02</v>
+        <v>21.08</v>
       </c>
       <c r="U52" t="n">
-        <v>70.23999999999999</v>
+        <v>197.15</v>
       </c>
       <c r="V52" t="n">
-        <v>46.82</v>
+        <v>131.43</v>
       </c>
       <c r="W52" t="n">
-        <v>3.05</v>
+        <v>22.12</v>
       </c>
       <c r="X52" t="n">
-        <v>4.75</v>
+        <v>5.81</v>
       </c>
       <c r="Y52" t="n">
-        <v>97.04000000000001</v>
+        <v>103.17</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.402</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-07-21 16:37:31</t>
+          <t>2026-07-17 12:43:31</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.348</t>
+          <t>Mouse session - Score: 0.394</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MOUSE_20260721_000</t>
+          <t>MOUSE_20260717_003</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-07-21</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>16:37:31</t>
+          <t>12:43:31</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -6274,58 +6274,58 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>14812</v>
+        <v>11000</v>
       </c>
       <c r="L53" t="n">
-        <v>14812</v>
+        <v>11000</v>
       </c>
       <c r="M53" t="n">
-        <v>39491.18</v>
+        <v>35128.26</v>
       </c>
       <c r="N53" t="n">
-        <v>23694.71</v>
+        <v>21076.96</v>
       </c>
       <c r="O53" t="n">
-        <v>15796.47</v>
+        <v>14051.3</v>
       </c>
       <c r="P53" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="R53" t="n">
-        <v>41.38</v>
+        <v>108.37</v>
       </c>
       <c r="S53" t="n">
-        <v>954.37</v>
+        <v>324.16</v>
       </c>
       <c r="T53" t="n">
-        <v>9.52</v>
+        <v>13.19</v>
       </c>
       <c r="U53" t="n">
-        <v>572.62</v>
+        <v>194.49</v>
       </c>
       <c r="V53" t="n">
-        <v>381.75</v>
+        <v>129.66</v>
       </c>
       <c r="W53" t="n">
-        <v>21.12</v>
+        <v>11.26</v>
       </c>
       <c r="X53" t="n">
-        <v>21.72</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="Y53" t="n">
-        <v>41.38</v>
+        <v>108.37</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.348</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-07-21 11:01:00</t>
+          <t>2026-07-20 09:38:40</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.284</t>
+          <t>Mouse session - Score: 0.405</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MOUSE_20260721_001</t>
+          <t>MOUSE_20260720_000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6358,12 +6358,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-07-21</t>
+          <t>2026-07-20</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>11:01:00</t>
+          <t>09:38:40</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -6372,58 +6372,58 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>20528</v>
+        <v>27918</v>
       </c>
       <c r="L54" t="n">
-        <v>20528</v>
+        <v>27918</v>
       </c>
       <c r="M54" t="n">
-        <v>23824.18</v>
+        <v>11473.04</v>
       </c>
       <c r="N54" t="n">
-        <v>14294.51</v>
+        <v>6883.82</v>
       </c>
       <c r="O54" t="n">
-        <v>9529.67</v>
+        <v>4589.21</v>
       </c>
       <c r="P54" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q54" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R54" t="n">
-        <v>173.22</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="S54" t="n">
-        <v>137.54</v>
+        <v>159.51</v>
       </c>
       <c r="T54" t="n">
-        <v>30.12</v>
+        <v>45.8</v>
       </c>
       <c r="U54" t="n">
-        <v>82.52</v>
+        <v>95.7</v>
       </c>
       <c r="V54" t="n">
-        <v>55.01</v>
+        <v>63.8</v>
       </c>
       <c r="W54" t="n">
-        <v>26.19</v>
+        <v>22.9</v>
       </c>
       <c r="X54" t="n">
-        <v>22.23</v>
+        <v>12.2</v>
       </c>
       <c r="Y54" t="n">
-        <v>173.22</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.284</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-07-21 13:13:31</t>
+          <t>2026-07-20 17:32:11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.286</t>
+          <t>Mouse session - Score: 0.268</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MOUSE_20260721_002</t>
+          <t>MOUSE_20260720_001</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6456,66 +6456,1830 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
+          <t>2026-07-20</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>17:32:11</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>8746</v>
+      </c>
+      <c r="L55" t="n">
+        <v>8746</v>
+      </c>
+      <c r="M55" t="n">
+        <v>35649.46</v>
+      </c>
+      <c r="N55" t="n">
+        <v>21389.67</v>
+      </c>
+      <c r="O55" t="n">
+        <v>14259.78</v>
+      </c>
+      <c r="P55" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>26</v>
+      </c>
+      <c r="R55" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="S55" t="n">
+        <v>497.7</v>
+      </c>
+      <c r="T55" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="U55" t="n">
+        <v>298.62</v>
+      </c>
+      <c r="V55" t="n">
+        <v>199.08</v>
+      </c>
+      <c r="W55" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="X55" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-07-20 14:56:54</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.268</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>MOUSE_20260720_002</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2026-07-20</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>14:56:54</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>9038</v>
+      </c>
+      <c r="L56" t="n">
+        <v>9038</v>
+      </c>
+      <c r="M56" t="n">
+        <v>29287.57</v>
+      </c>
+      <c r="N56" t="n">
+        <v>17572.54</v>
+      </c>
+      <c r="O56" t="n">
+        <v>11715.03</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>21</v>
+      </c>
+      <c r="R56" t="n">
+        <v>164.06</v>
+      </c>
+      <c r="S56" t="n">
+        <v>178.51</v>
+      </c>
+      <c r="T56" t="n">
+        <v>39.61</v>
+      </c>
+      <c r="U56" t="n">
+        <v>107.11</v>
+      </c>
+      <c r="V56" t="n">
+        <v>71.41</v>
+      </c>
+      <c r="W56" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X56" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>164.06</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-07-20 09:06:59</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.327</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>MOUSE_20260720_003</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2026-07-20</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>09:06:59</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>9992</v>
+      </c>
+      <c r="L57" t="n">
+        <v>9992</v>
+      </c>
+      <c r="M57" t="n">
+        <v>26722.13</v>
+      </c>
+      <c r="N57" t="n">
+        <v>16033.28</v>
+      </c>
+      <c r="O57" t="n">
+        <v>10688.85</v>
+      </c>
+      <c r="P57" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>119.57</v>
+      </c>
+      <c r="S57" t="n">
+        <v>223.48</v>
+      </c>
+      <c r="T57" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="U57" t="n">
+        <v>134.09</v>
+      </c>
+      <c r="V57" t="n">
+        <v>89.39</v>
+      </c>
+      <c r="W57" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="X57" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>119.57</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-07-21 09:53:23</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.443</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>MOUSE_20260721_000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
           <t>2026-07-21</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>13:13:31</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>09:53:23</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>Mouse</t>
         </is>
       </c>
-      <c r="K55" t="n">
-        <v>13451</v>
-      </c>
-      <c r="L55" t="n">
-        <v>13451</v>
-      </c>
-      <c r="M55" t="n">
-        <v>5193.75</v>
-      </c>
-      <c r="N55" t="n">
-        <v>3116.25</v>
-      </c>
-      <c r="O55" t="n">
-        <v>2077.5</v>
-      </c>
-      <c r="P55" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q55" t="n">
+      <c r="K58" t="n">
+        <v>11986</v>
+      </c>
+      <c r="L58" t="n">
+        <v>11986</v>
+      </c>
+      <c r="M58" t="n">
+        <v>38719.38</v>
+      </c>
+      <c r="N58" t="n">
+        <v>23231.63</v>
+      </c>
+      <c r="O58" t="n">
+        <v>15487.75</v>
+      </c>
+      <c r="P58" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>14</v>
+      </c>
+      <c r="R58" t="n">
+        <v>112.54</v>
+      </c>
+      <c r="S58" t="n">
+        <v>344.05</v>
+      </c>
+      <c r="T58" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="U58" t="n">
+        <v>206.43</v>
+      </c>
+      <c r="V58" t="n">
+        <v>137.62</v>
+      </c>
+      <c r="W58" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="X58" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>112.54</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-07-21 16:21:47</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.326</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MOUSE_20260721_001</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2026-07-21</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>16:21:47</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>21902</v>
+      </c>
+      <c r="L59" t="n">
+        <v>21902</v>
+      </c>
+      <c r="M59" t="n">
+        <v>31365.36</v>
+      </c>
+      <c r="N59" t="n">
+        <v>18819.22</v>
+      </c>
+      <c r="O59" t="n">
+        <v>12546.15</v>
+      </c>
+      <c r="P59" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>76.69</v>
+      </c>
+      <c r="S59" t="n">
+        <v>409</v>
+      </c>
+      <c r="T59" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="U59" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>163.6</v>
+      </c>
+      <c r="W59" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="X59" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>76.69</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.326</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-07-21 15:49:03</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.304</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>MOUSE_20260721_002</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2026-07-21</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>15:49:03</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>11884</v>
+      </c>
+      <c r="L60" t="n">
+        <v>11884</v>
+      </c>
+      <c r="M60" t="n">
+        <v>11445.83</v>
+      </c>
+      <c r="N60" t="n">
+        <v>6867.5</v>
+      </c>
+      <c r="O60" t="n">
+        <v>4578.33</v>
+      </c>
+      <c r="P60" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>9</v>
+      </c>
+      <c r="R60" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="T60" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="U60" t="n">
+        <v>49.58</v>
+      </c>
+      <c r="V60" t="n">
+        <v>33.06</v>
+      </c>
+      <c r="W60" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="X60" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.304</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-07-21 14:10:03</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.417</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MOUSE_20260721_003</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2026-07-21</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>14:10:03</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>19484</v>
+      </c>
+      <c r="L61" t="n">
+        <v>19484</v>
+      </c>
+      <c r="M61" t="n">
+        <v>7057.37</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4234.42</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2822.95</v>
+      </c>
+      <c r="P61" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>16</v>
+      </c>
+      <c r="R61" t="n">
+        <v>132.44</v>
+      </c>
+      <c r="S61" t="n">
+        <v>53.29</v>
+      </c>
+      <c r="T61" t="n">
+        <v>48.65</v>
+      </c>
+      <c r="U61" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="V61" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="W61" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="X61" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>132.44</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-07-22 10:27:52</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.369</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>MOUSE_20260722_000</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2026-07-22</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>10:27:52</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>7643</v>
+      </c>
+      <c r="L62" t="n">
+        <v>7643</v>
+      </c>
+      <c r="M62" t="n">
+        <v>36601.92</v>
+      </c>
+      <c r="N62" t="n">
+        <v>21961.15</v>
+      </c>
+      <c r="O62" t="n">
+        <v>14640.77</v>
+      </c>
+      <c r="P62" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>85.04000000000001</v>
+      </c>
+      <c r="S62" t="n">
+        <v>430.41</v>
+      </c>
+      <c r="T62" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="U62" t="n">
+        <v>258.24</v>
+      </c>
+      <c r="V62" t="n">
+        <v>172.16</v>
+      </c>
+      <c r="W62" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="X62" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>85.04000000000001</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.369</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-07-22 11:25:46</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.364</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MOUSE_20260722_001</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2026-07-22</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>11:25:46</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>25303</v>
+      </c>
+      <c r="L63" t="n">
+        <v>25303</v>
+      </c>
+      <c r="M63" t="n">
+        <v>16462.07</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9877.24</v>
+      </c>
+      <c r="O63" t="n">
+        <v>6584.83</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>8</v>
+      </c>
+      <c r="R63" t="n">
+        <v>94.09</v>
+      </c>
+      <c r="S63" t="n">
+        <v>174.96</v>
+      </c>
+      <c r="T63" t="n">
+        <v>35.18</v>
+      </c>
+      <c r="U63" t="n">
+        <v>104.97</v>
+      </c>
+      <c r="V63" t="n">
+        <v>69.98</v>
+      </c>
+      <c r="W63" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="X63" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>94.09</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-07-22 11:35:24</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.311</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MOUSE_20260722_002</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2026-07-22</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>11:35:24</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>16556</v>
+      </c>
+      <c r="L64" t="n">
+        <v>16556</v>
+      </c>
+      <c r="M64" t="n">
+        <v>31445.48</v>
+      </c>
+      <c r="N64" t="n">
+        <v>18867.29</v>
+      </c>
+      <c r="O64" t="n">
+        <v>12578.19</v>
+      </c>
+      <c r="P64" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>20</v>
+      </c>
+      <c r="R64" t="n">
+        <v>162.67</v>
+      </c>
+      <c r="S64" t="n">
+        <v>193.3</v>
+      </c>
+      <c r="T64" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="U64" t="n">
+        <v>115.98</v>
+      </c>
+      <c r="V64" t="n">
+        <v>77.31999999999999</v>
+      </c>
+      <c r="W64" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>162.67</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-07-22 16:24:33</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.324</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>MOUSE_20260722_003</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2026-07-22</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>16:24:33</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>27004</v>
+      </c>
+      <c r="L65" t="n">
+        <v>27004</v>
+      </c>
+      <c r="M65" t="n">
+        <v>6871.09</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4122.65</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2748.43</v>
+      </c>
+      <c r="P65" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>42.64</v>
+      </c>
+      <c r="S65" t="n">
+        <v>161.16</v>
+      </c>
+      <c r="T65" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="U65" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="V65" t="n">
+        <v>64.45999999999999</v>
+      </c>
+      <c r="W65" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="X65" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>42.64</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-07-23 11:42:10</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.255</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MOUSE_20260723_000</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2026-07-23</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>11:42:10</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>29873</v>
+      </c>
+      <c r="L66" t="n">
+        <v>29873</v>
+      </c>
+      <c r="M66" t="n">
+        <v>28232.18</v>
+      </c>
+      <c r="N66" t="n">
+        <v>16939.31</v>
+      </c>
+      <c r="O66" t="n">
+        <v>11292.87</v>
+      </c>
+      <c r="P66" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>65.37</v>
+      </c>
+      <c r="S66" t="n">
+        <v>431.87</v>
+      </c>
+      <c r="T66" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="U66" t="n">
+        <v>259.12</v>
+      </c>
+      <c r="V66" t="n">
+        <v>172.75</v>
+      </c>
+      <c r="W66" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="X66" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>65.37</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-07-23 09:42:34</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.331</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MOUSE_20260723_001</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2026-07-23</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>09:42:34</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>25513</v>
+      </c>
+      <c r="L67" t="n">
+        <v>25513</v>
+      </c>
+      <c r="M67" t="n">
+        <v>26545.62</v>
+      </c>
+      <c r="N67" t="n">
+        <v>15927.37</v>
+      </c>
+      <c r="O67" t="n">
+        <v>10618.25</v>
+      </c>
+      <c r="P67" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>147.49</v>
+      </c>
+      <c r="S67" t="n">
+        <v>179.99</v>
+      </c>
+      <c r="T67" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="U67" t="n">
+        <v>107.99</v>
+      </c>
+      <c r="V67" t="n">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="W67" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="X67" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>147.49</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.331</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-07-23 17:49:16</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.357</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MOUSE_20260723_002</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2026-07-23</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>17:49:16</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>14832</v>
+      </c>
+      <c r="L68" t="n">
+        <v>14832</v>
+      </c>
+      <c r="M68" t="n">
+        <v>11376.94</v>
+      </c>
+      <c r="N68" t="n">
+        <v>6826.16</v>
+      </c>
+      <c r="O68" t="n">
+        <v>4550.78</v>
+      </c>
+      <c r="P68" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>13</v>
+      </c>
+      <c r="R68" t="n">
+        <v>172.85</v>
+      </c>
+      <c r="S68" t="n">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="T68" t="n">
+        <v>42.63</v>
+      </c>
+      <c r="U68" t="n">
+        <v>39.49</v>
+      </c>
+      <c r="V68" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="W68" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="X68" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>172.85</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-07-23 15:46:12</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.345</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MOUSE_20260723_003</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2026-07-23</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>15:46:12</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>26115</v>
+      </c>
+      <c r="L69" t="n">
+        <v>26115</v>
+      </c>
+      <c r="M69" t="n">
+        <v>20466.34</v>
+      </c>
+      <c r="N69" t="n">
+        <v>12279.8</v>
+      </c>
+      <c r="O69" t="n">
+        <v>8186.54</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>8</v>
+      </c>
+      <c r="R69" t="n">
+        <v>139.82</v>
+      </c>
+      <c r="S69" t="n">
+        <v>146.37</v>
+      </c>
+      <c r="T69" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="U69" t="n">
+        <v>87.81999999999999</v>
+      </c>
+      <c r="V69" t="n">
+        <v>58.55</v>
+      </c>
+      <c r="W69" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="X69" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>139.82</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0.345</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-07-24 10:59:25</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.855</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MOUSE_20260724_000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2026-07-24</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>10:59:25</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>9719</v>
+      </c>
+      <c r="L70" t="n">
+        <v>9719</v>
+      </c>
+      <c r="M70" t="n">
+        <v>6700.01</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4020</v>
+      </c>
+      <c r="O70" t="n">
+        <v>2680</v>
+      </c>
+      <c r="P70" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>139.16</v>
+      </c>
+      <c r="S70" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="T70" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="U70" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="V70" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="W70" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="X70" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>139.16</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-07-24 17:16:15</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.385</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MOUSE_20260724_001</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2026-07-24</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>17:16:15</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>9617</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9617</v>
+      </c>
+      <c r="M71" t="n">
+        <v>36893.29</v>
+      </c>
+      <c r="N71" t="n">
+        <v>22135.97</v>
+      </c>
+      <c r="O71" t="n">
+        <v>14757.31</v>
+      </c>
+      <c r="P71" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>21</v>
+      </c>
+      <c r="R71" t="n">
+        <v>134.62</v>
+      </c>
+      <c r="S71" t="n">
+        <v>274.06</v>
+      </c>
+      <c r="T71" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="U71" t="n">
+        <v>164.44</v>
+      </c>
+      <c r="V71" t="n">
+        <v>109.63</v>
+      </c>
+      <c r="W71" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="X71" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>134.62</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0.385</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-07-24 16:55:48</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.321</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>MOUSE_20260724_002</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2026-07-24</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>16:55:48</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>25841</v>
+      </c>
+      <c r="L72" t="n">
+        <v>25841</v>
+      </c>
+      <c r="M72" t="n">
+        <v>30862.52</v>
+      </c>
+      <c r="N72" t="n">
+        <v>18517.51</v>
+      </c>
+      <c r="O72" t="n">
+        <v>12345.01</v>
+      </c>
+      <c r="P72" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>50.73</v>
+      </c>
+      <c r="S72" t="n">
+        <v>608.42</v>
+      </c>
+      <c r="T72" t="n">
+        <v>45.82</v>
+      </c>
+      <c r="U72" t="n">
+        <v>365.05</v>
+      </c>
+      <c r="V72" t="n">
+        <v>243.37</v>
+      </c>
+      <c r="W72" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="X72" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>50.73</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-07-24 15:46:14</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.307</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MOUSE_20260724_003</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2026-07-24</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>15:46:14</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>24198</v>
+      </c>
+      <c r="L73" t="n">
+        <v>24198</v>
+      </c>
+      <c r="M73" t="n">
+        <v>37241.79</v>
+      </c>
+      <c r="N73" t="n">
+        <v>22345.07</v>
+      </c>
+      <c r="O73" t="n">
+        <v>14896.71</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
         <v>19</v>
       </c>
-      <c r="R55" t="n">
-        <v>47.55</v>
-      </c>
-      <c r="S55" t="n">
-        <v>109.22</v>
-      </c>
-      <c r="T55" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="U55" t="n">
-        <v>65.53</v>
-      </c>
-      <c r="V55" t="n">
-        <v>43.69</v>
-      </c>
-      <c r="W55" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="X55" t="n">
-        <v>28.38</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>47.55</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0.286</v>
+      <c r="R73" t="n">
+        <v>153.88</v>
+      </c>
+      <c r="S73" t="n">
+        <v>242.02</v>
+      </c>
+      <c r="T73" t="n">
+        <v>44.05</v>
+      </c>
+      <c r="U73" t="n">
+        <v>145.21</v>
+      </c>
+      <c r="V73" t="n">
+        <v>96.81</v>
+      </c>
+      <c r="W73" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="X73" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>153.88</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0.307</v>
       </c>
     </row>
   </sheetData>
@@ -6529,7 +8293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6592,20 +8356,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-07-01 13:15:00</t>
+          <t>2026-07-01 15:17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-07-01 19:25:52</t>
+          <t>2026-07-01 20:51:48</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>22252</v>
+        <v>20088</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>06:10:00</t>
+          <t>05:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -6632,20 +8396,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-07-02 12:38:00</t>
+          <t>2026-07-02 11:53:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-07-02 18:57:18</t>
+          <t>2026-07-02 18:42:32</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22758</v>
+        <v>24572</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>06:19:00</t>
+          <t>06:49:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -6677,15 +8441,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-07-03 12:03:45</t>
+          <t>2026-07-03 11:16:27</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12285</v>
+        <v>9447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>03:24:00</t>
+          <t>02:37:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6712,20 +8476,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-07-03 15:55:00</t>
+          <t>2026-07-03 13:02:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-07-03 18:57:18</t>
+          <t>2026-07-03 15:33:31</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10938</v>
+        <v>9091</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>03:02:00</t>
+          <t>02:31:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6752,20 +8516,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-07-06 14:15:00</t>
+          <t>2026-07-06 15:25:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-07-06 17:11:09</t>
+          <t>2026-07-06 20:50:01</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10569</v>
+        <v>19501</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>02:56:00</t>
+          <t>05:25:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6782,7 +8546,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BROWSER_20260706_01</t>
+          <t>BROWSER_20260707_00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6792,25 +8556,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-07-06 12:09:00</t>
+          <t>2026-07-07 08:48:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-07-06 14:57:35</t>
+          <t>2026-07-07 15:30:02</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10115</v>
+        <v>24122</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02:48:00</t>
+          <t>06:42:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-07-06</t>
+          <t>2026-07-07</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6822,7 +8586,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BROWSER_20260707_00</t>
+          <t>BROWSER_20260708_00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6832,25 +8596,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-07-07 11:06:00</t>
+          <t>2026-07-08 08:21:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-07-07 13:58:13</t>
+          <t>2026-07-08 13:31:56</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10333</v>
+        <v>18656</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02:52:00</t>
+          <t>05:10:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6862,7 +8626,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BROWSER_20260707_01</t>
+          <t>BROWSER_20260709_00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -6872,25 +8636,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-07-07 11:43:00</t>
+          <t>2026-07-09 08:35:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-07-07 14:23:00</t>
+          <t>2026-07-09 11:43:05</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9600</v>
+        <v>11285</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>02:40:00</t>
+          <t>03:08:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -6902,7 +8666,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BROWSER_20260708_00</t>
+          <t>BROWSER_20260709_01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -6912,25 +8676,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-07-08 11:34:00</t>
+          <t>2026-07-09 11:21:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-07-08 17:28:55</t>
+          <t>2026-07-09 13:55:52</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21295</v>
+        <v>9292</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>05:54:00</t>
+          <t>02:34:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6942,7 +8706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BROWSER_20260709_00</t>
+          <t>BROWSER_20260710_00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -6952,25 +8716,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-07-09 09:48:00</t>
+          <t>2026-07-10 12:08:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-07-09 12:38:46</t>
+          <t>2026-07-10 15:29:20</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10246</v>
+        <v>12080</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>02:50:00</t>
+          <t>03:21:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6982,7 +8746,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BROWSER_20260709_01</t>
+          <t>BROWSER_20260710_01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -6992,25 +8756,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-07-09 10:00:00</t>
+          <t>2026-07-10 11:39:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-07-09 13:01:59</t>
+          <t>2026-07-10 14:10:14</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10919</v>
+        <v>9074</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>03:01:00</t>
+          <t>02:31:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7022,7 +8786,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BROWSER_20260710_00</t>
+          <t>BROWSER_20260713_00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7032,25 +8796,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-07-10 12:45:00</t>
+          <t>2026-07-13 12:24:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-07-10 19:10:01</t>
+          <t>2026-07-13 15:08:19</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>23101</v>
+        <v>9859</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>06:25:00</t>
+          <t>02:44:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7062,7 +8826,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BROWSER_20260713_00</t>
+          <t>BROWSER_20260713_01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7072,20 +8836,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-07-13 15:26:00</t>
+          <t>2026-07-13 12:12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-07-13 17:56:00</t>
+          <t>2026-07-13 14:58:21</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9000</v>
+        <v>9981</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>02:30:00</t>
+          <t>02:46:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7102,7 +8866,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BROWSER_20260713_01</t>
+          <t>BROWSER_20260714_00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7112,25 +8876,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-07-13 10:46:00</t>
+          <t>2026-07-14 08:35:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-07-13 13:19:51</t>
+          <t>2026-07-14 13:44:18</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9231</v>
+        <v>18558</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>02:33:00</t>
+          <t>05:09:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7142,7 +8906,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BROWSER_20260714_00</t>
+          <t>BROWSER_20260715_00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7152,25 +8916,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-07-14 11:40:00</t>
+          <t>2026-07-15 08:35:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-07-14 14:10:58</t>
+          <t>2026-07-15 11:29:52</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9058</v>
+        <v>10492</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>02:30:00</t>
+          <t>02:54:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7182,7 +8946,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROWSER_20260714_01</t>
+          <t>BROWSER_20260715_01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7192,25 +8956,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-07-14 10:43:00</t>
+          <t>2026-07-15 10:55:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-07-14 13:55:37</t>
+          <t>2026-07-15 13:28:54</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11557</v>
+        <v>9234</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>03:12:00</t>
+          <t>02:33:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7222,7 +8986,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BROWSER_20260715_00</t>
+          <t>BROWSER_20260716_00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7232,25 +8996,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-07-15 14:14:00</t>
+          <t>2026-07-16 11:01:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-07-15 17:37:25</t>
+          <t>2026-07-16 17:08:31</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>12205</v>
+        <v>22051</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>03:23:00</t>
+          <t>06:07:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7262,7 +9026,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BROWSER_20260715_01</t>
+          <t>BROWSER_20260717_00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7272,25 +9036,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-07-15 08:11:00</t>
+          <t>2026-07-17 09:06:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-07-15 11:12:41</t>
+          <t>2026-07-17 14:41:56</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10901</v>
+        <v>20156</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>03:01:00</t>
+          <t>05:35:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7302,7 +9066,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BROWSER_20260716_00</t>
+          <t>BROWSER_20260720_00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7312,25 +9076,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-07-16 09:25:00</t>
+          <t>2026-07-20 12:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-07-16 16:05:42</t>
+          <t>2026-07-20 15:52:34</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24042</v>
+        <v>12154</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>06:40:00</t>
+          <t>03:22:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-20</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7342,7 +9106,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BROWSER_20260717_00</t>
+          <t>BROWSER_20260720_01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7352,25 +9116,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-07-17 11:30:00</t>
+          <t>2026-07-20 14:17:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-07-17 14:44:45</t>
+          <t>2026-07-20 17:11:32</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11685</v>
+        <v>10472</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>03:14:00</t>
+          <t>02:54:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-20</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7382,7 +9146,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BROWSER_20260717_01</t>
+          <t>BROWSER_20260721_00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7392,25 +9156,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-07-17 12:32:00</t>
+          <t>2026-07-21 15:13:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-07-17 15:11:03</t>
+          <t>2026-07-21 21:02:21</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9543</v>
+        <v>20961</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>02:39:00</t>
+          <t>05:49:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-21</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7422,7 +9186,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BROWSER_20260720_00</t>
+          <t>BROWSER_20260722_00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7432,25 +9196,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-07-20 15:21:00</t>
+          <t>2026-07-22 09:18:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-07-20 18:06:09</t>
+          <t>2026-07-22 11:57:35</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9909</v>
+        <v>9575</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>02:45:00</t>
+          <t>02:39:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7462,7 +9226,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BROWSER_20260720_01</t>
+          <t>BROWSER_20260722_01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -7472,25 +9236,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-07-20 08:36:00</t>
+          <t>2026-07-22 10:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-07-20 11:18:19</t>
+          <t>2026-07-22 14:03:27</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>9739</v>
+        <v>11907</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>02:42:00</t>
+          <t>03:18:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7502,7 +9266,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BROWSER_20260721_00</t>
+          <t>BROWSER_20260723_00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -7512,25 +9276,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2026-07-21 10:27:00</t>
+          <t>2026-07-23 13:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-07-21 16:25:52</t>
+          <t>2026-07-23 16:02:05</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21532</v>
+        <v>10025</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>05:58:00</t>
+          <t>02:47:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-07-21</t>
+          <t>2026-07-23</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7542,7 +9306,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BROWSER_20260722_00</t>
+          <t>BROWSER_20260723_01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -7552,25 +9316,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2026-07-22 10:02:00</t>
+          <t>2026-07-23 09:28:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-07-22 13:08:40</t>
+          <t>2026-07-23 12:24:32</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>11200</v>
+        <v>10592</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>03:06:00</t>
+          <t>02:56:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-07-22</t>
+          <t>2026-07-23</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7582,7 +9346,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BROWSER_20260722_01</t>
+          <t>BROWSER_20260724_00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -7592,148 +9356,28 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2026-07-22 09:45:00</t>
+          <t>2026-07-24 12:10:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2026-07-22 12:53:48</t>
+          <t>2026-07-24 18:07:50</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>11328</v>
+        <v>21470</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>03:08:00</t>
+          <t>05:57:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-07-22</t>
+          <t>2026-07-24</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>BROWSER_20260723_00</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2026-07-23 11:03:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2026-07-23 17:40:14</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>23834</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>06:37:00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2026-07-23</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>BROWSER_20260724_00</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2026-07-24 10:08:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2026-07-24 12:45:00</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>9420</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>02:37:00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2026-07-24</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>BROWSER_20260724_01</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2026-07-24 09:51:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2026-07-24 13:19:49</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>12529</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>03:28:00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2026-07-24</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
         <is>
           <t>Browser_Session</t>
         </is>
